--- a/上市公司2016年度财务数据_20180226.xlsx
+++ b/上市公司2016年度财务数据_20180226.xlsx
@@ -3791,8 +3791,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
-    <numFmt numFmtId="183" formatCode="0.0000_ "/>
-    <numFmt numFmtId="184" formatCode="0.00000000_ "/>
+    <numFmt numFmtId="178" formatCode="0.0000_ "/>
+    <numFmt numFmtId="179" formatCode="0.00000000_ "/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -3979,43 +3979,43 @@
     <xf numFmtId="177" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4550,10 +4550,10 @@
   <dimension ref="A1:T480"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H338" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="H344" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H348" sqref="H348"/>
+      <selection pane="bottomRight" activeCell="I353" sqref="I353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
@@ -20802,7 +20802,9 @@
         <v>52</v>
       </c>
       <c r="G352" s="15"/>
-      <c r="H352" s="24"/>
+      <c r="H352" s="24">
+        <v>13123</v>
+      </c>
       <c r="I352" s="16"/>
       <c r="J352" s="16"/>
       <c r="K352" s="16"/>
@@ -20815,13 +20817,13 @@
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R352" s="40" t="e">
+      <c r="R352" s="40">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S352" s="38" t="e">
+        <v>0</v>
+      </c>
+      <c r="S352" s="38">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="T352" s="36">
         <f t="shared" si="23"/>

--- a/上市公司2016年度财务数据_20180226.xlsx
+++ b/上市公司2016年度财务数据_20180226.xlsx
@@ -3812,6 +3812,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3892,7 +3893,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4016,6 +4017,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4550,10 +4554,10 @@
   <dimension ref="A1:T480"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H344" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="H288" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I353" sqref="I353"/>
+      <selection pane="bottomRight" activeCell="H361" sqref="H361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
@@ -4572,7 +4576,7 @@
     <col min="14" max="14" width="10.125" style="34" customWidth="1"/>
     <col min="15" max="16" width="8.625" style="34" customWidth="1"/>
     <col min="17" max="17" width="13.125" style="37" customWidth="1"/>
-    <col min="18" max="18" width="14.625" style="41" customWidth="1"/>
+    <col min="18" max="18" width="25.125" style="41" customWidth="1"/>
     <col min="19" max="19" width="12.875" style="42" customWidth="1"/>
     <col min="20" max="20" width="17.75" style="37" customWidth="1"/>
     <col min="21" max="16384" width="9" style="4"/>
@@ -18542,30 +18546,48 @@
       <c r="G303" s="15" t="s">
         <v>781</v>
       </c>
-      <c r="H303" s="24"/>
-      <c r="I303" s="16"/>
-      <c r="J303" s="16"/>
-      <c r="K303" s="16"/>
-      <c r="L303" s="22"/>
-      <c r="M303" s="22"/>
-      <c r="N303" s="32"/>
-      <c r="O303" s="32"/>
-      <c r="P303" s="32"/>
-      <c r="Q303" s="36" t="e">
+      <c r="H303" s="24">
+        <v>14467585682</v>
+      </c>
+      <c r="I303" s="16">
+        <v>0</v>
+      </c>
+      <c r="J303" s="16">
+        <v>11</v>
+      </c>
+      <c r="K303" s="16">
+        <v>4</v>
+      </c>
+      <c r="L303" s="22">
+        <v>3960</v>
+      </c>
+      <c r="M303" s="22">
+        <v>70387</v>
+      </c>
+      <c r="N303" s="32">
+        <v>16</v>
+      </c>
+      <c r="O303" s="32">
+        <v>16</v>
+      </c>
+      <c r="P303" s="32">
+        <v>16</v>
+      </c>
+      <c r="Q303" s="36">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R303" s="40" t="e">
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="R303" s="40">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S303" s="38" t="e">
+        <v>2.7371533074290865E-5</v>
+      </c>
+      <c r="S303" s="38">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>4.8651517638891701E-4</v>
       </c>
       <c r="T303" s="36">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="304" spans="1:20" x14ac:dyDescent="0.15">
@@ -18588,30 +18610,48 @@
         <v>42</v>
       </c>
       <c r="G304" s="15"/>
-      <c r="H304" s="24"/>
-      <c r="I304" s="16"/>
-      <c r="J304" s="16"/>
-      <c r="K304" s="16"/>
-      <c r="L304" s="22"/>
-      <c r="M304" s="22"/>
-      <c r="N304" s="32"/>
-      <c r="O304" s="32"/>
-      <c r="P304" s="32"/>
-      <c r="Q304" s="36" t="e">
+      <c r="H304" s="24">
+        <v>307400000</v>
+      </c>
+      <c r="I304" s="16">
+        <v>0</v>
+      </c>
+      <c r="J304" s="16">
+        <v>9</v>
+      </c>
+      <c r="K304" s="16">
+        <v>3</v>
+      </c>
+      <c r="L304" s="22">
+        <v>101400</v>
+      </c>
+      <c r="M304" s="22">
+        <v>113600</v>
+      </c>
+      <c r="N304" s="32">
+        <v>108.328</v>
+      </c>
+      <c r="O304" s="32">
+        <v>103.8</v>
+      </c>
+      <c r="P304" s="32">
+        <v>58.8</v>
+      </c>
+      <c r="Q304" s="36">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R304" s="40" t="e">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R304" s="40">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S304" s="38" t="e">
+        <v>3.2986337020169162E-2</v>
+      </c>
+      <c r="S304" s="38">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>3.695510735198438E-2</v>
       </c>
       <c r="T304" s="36">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>270.928</v>
       </c>
     </row>
     <row r="305" spans="1:20" x14ac:dyDescent="0.15">
@@ -18634,30 +18674,48 @@
         <v>204</v>
       </c>
       <c r="G305" s="15"/>
-      <c r="H305" s="24"/>
-      <c r="I305" s="16"/>
-      <c r="J305" s="16"/>
-      <c r="K305" s="16"/>
-      <c r="L305" s="22"/>
-      <c r="M305" s="22"/>
-      <c r="N305" s="32"/>
-      <c r="O305" s="32"/>
-      <c r="P305" s="32"/>
-      <c r="Q305" s="36" t="e">
+      <c r="H305" s="24">
+        <v>1153818350</v>
+      </c>
+      <c r="I305" s="16">
+        <v>0</v>
+      </c>
+      <c r="J305" s="16">
+        <v>11</v>
+      </c>
+      <c r="K305" s="16">
+        <v>4</v>
+      </c>
+      <c r="L305" s="22">
+        <v>11912500</v>
+      </c>
+      <c r="M305" s="22">
+        <v>12206100</v>
+      </c>
+      <c r="N305" s="32">
+        <v>50</v>
+      </c>
+      <c r="O305" s="32">
+        <v>30</v>
+      </c>
+      <c r="P305" s="32">
+        <v>8</v>
+      </c>
+      <c r="Q305" s="36">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R305" s="40" t="e">
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="R305" s="40">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S305" s="38" t="e">
+        <v>1.032441545066431</v>
+      </c>
+      <c r="S305" s="38">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>1.0578874915622549</v>
       </c>
       <c r="T305" s="36">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="306" spans="1:20" x14ac:dyDescent="0.15">
@@ -18680,30 +18738,48 @@
         <v>77</v>
       </c>
       <c r="G306" s="15"/>
-      <c r="H306" s="24"/>
-      <c r="I306" s="16"/>
-      <c r="J306" s="16"/>
-      <c r="K306" s="16"/>
-      <c r="L306" s="22"/>
-      <c r="M306" s="22"/>
-      <c r="N306" s="32"/>
-      <c r="O306" s="32"/>
-      <c r="P306" s="32"/>
-      <c r="Q306" s="36" t="e">
+      <c r="H306" s="24">
+        <v>768000000</v>
+      </c>
+      <c r="I306" s="16">
+        <v>0</v>
+      </c>
+      <c r="J306" s="16">
+        <v>5</v>
+      </c>
+      <c r="K306" s="16">
+        <v>3</v>
+      </c>
+      <c r="L306" s="22">
+        <v>0</v>
+      </c>
+      <c r="M306" s="22">
+        <v>0</v>
+      </c>
+      <c r="N306" s="32">
+        <v>27.03</v>
+      </c>
+      <c r="O306" s="32">
+        <v>6</v>
+      </c>
+      <c r="P306" s="32">
+        <v>6</v>
+      </c>
+      <c r="Q306" s="36">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R306" s="40" t="e">
+        <v>0.6</v>
+      </c>
+      <c r="R306" s="40">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S306" s="38" t="e">
+        <v>0</v>
+      </c>
+      <c r="S306" s="38">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="T306" s="36">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>39.03</v>
       </c>
     </row>
     <row r="307" spans="1:20" x14ac:dyDescent="0.15">
@@ -18726,30 +18802,48 @@
         <v>483</v>
       </c>
       <c r="G307" s="15"/>
-      <c r="H307" s="24"/>
-      <c r="I307" s="16"/>
-      <c r="J307" s="16"/>
-      <c r="K307" s="16"/>
-      <c r="L307" s="22"/>
-      <c r="M307" s="22"/>
-      <c r="N307" s="32"/>
-      <c r="O307" s="32"/>
-      <c r="P307" s="32"/>
-      <c r="Q307" s="36" t="e">
+      <c r="H307" s="24">
+        <v>634257780</v>
+      </c>
+      <c r="I307" s="16">
+        <v>0</v>
+      </c>
+      <c r="J307" s="16">
+        <v>9</v>
+      </c>
+      <c r="K307" s="16">
+        <v>3</v>
+      </c>
+      <c r="L307" s="22">
+        <v>0</v>
+      </c>
+      <c r="M307" s="22">
+        <v>0</v>
+      </c>
+      <c r="N307" s="32">
+        <v>71.41</v>
+      </c>
+      <c r="O307" s="32">
+        <v>50.43</v>
+      </c>
+      <c r="P307" s="32">
+        <v>34.57</v>
+      </c>
+      <c r="Q307" s="36">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R307" s="40" t="e">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R307" s="40">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S307" s="38" t="e">
+        <v>0</v>
+      </c>
+      <c r="S307" s="38">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="T307" s="36">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>156.41</v>
       </c>
     </row>
     <row r="308" spans="1:20" x14ac:dyDescent="0.15">
@@ -18774,30 +18868,48 @@
       <c r="G308" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="H308" s="24"/>
-      <c r="I308" s="16"/>
-      <c r="J308" s="16"/>
-      <c r="K308" s="16"/>
-      <c r="L308" s="22"/>
-      <c r="M308" s="22"/>
-      <c r="N308" s="32"/>
-      <c r="O308" s="32"/>
-      <c r="P308" s="32"/>
-      <c r="Q308" s="36" t="e">
+      <c r="H308" s="24">
+        <v>372991735</v>
+      </c>
+      <c r="I308" s="16">
+        <v>0</v>
+      </c>
+      <c r="J308" s="16">
+        <v>10</v>
+      </c>
+      <c r="K308" s="16">
+        <v>5</v>
+      </c>
+      <c r="L308" s="22">
+        <v>0</v>
+      </c>
+      <c r="M308" s="22">
+        <v>0</v>
+      </c>
+      <c r="N308" s="32">
+        <v>32.85</v>
+      </c>
+      <c r="O308" s="32">
+        <v>9.33</v>
+      </c>
+      <c r="P308" s="32">
+        <v>8</v>
+      </c>
+      <c r="Q308" s="36">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R308" s="40" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="R308" s="40">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S308" s="38" t="e">
+        <v>0</v>
+      </c>
+      <c r="S308" s="38">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="T308" s="36">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>50.18</v>
       </c>
     </row>
     <row r="309" spans="1:20" x14ac:dyDescent="0.15">
@@ -18820,30 +18932,48 @@
         <v>56</v>
       </c>
       <c r="G309" s="15"/>
-      <c r="H309" s="24"/>
-      <c r="I309" s="16"/>
-      <c r="J309" s="16"/>
-      <c r="K309" s="16"/>
-      <c r="L309" s="22"/>
-      <c r="M309" s="22"/>
-      <c r="N309" s="32"/>
-      <c r="O309" s="32"/>
-      <c r="P309" s="32"/>
-      <c r="Q309" s="36" t="e">
+      <c r="H309" s="24">
+        <v>673807773</v>
+      </c>
+      <c r="I309" s="16">
+        <v>0</v>
+      </c>
+      <c r="J309" s="16">
+        <v>7</v>
+      </c>
+      <c r="K309" s="16">
+        <v>3</v>
+      </c>
+      <c r="L309" s="22">
+        <v>0</v>
+      </c>
+      <c r="M309" s="22">
+        <v>0</v>
+      </c>
+      <c r="N309" s="32">
+        <v>6.5</v>
+      </c>
+      <c r="O309" s="32">
+        <v>6.5</v>
+      </c>
+      <c r="P309" s="32">
+        <v>6.5</v>
+      </c>
+      <c r="Q309" s="36">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R309" s="40" t="e">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="R309" s="40">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S309" s="38" t="e">
+        <v>0</v>
+      </c>
+      <c r="S309" s="38">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="T309" s="36">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="310" spans="1:20" x14ac:dyDescent="0.15">
@@ -18912,30 +19042,48 @@
         <v>246</v>
       </c>
       <c r="G311" s="15"/>
-      <c r="H311" s="24"/>
-      <c r="I311" s="16"/>
-      <c r="J311" s="16"/>
-      <c r="K311" s="16"/>
-      <c r="L311" s="22"/>
-      <c r="M311" s="22"/>
-      <c r="N311" s="32"/>
-      <c r="O311" s="32"/>
-      <c r="P311" s="32"/>
-      <c r="Q311" s="36" t="e">
+      <c r="H311" s="24">
+        <v>429800000</v>
+      </c>
+      <c r="I311" s="16">
+        <v>0</v>
+      </c>
+      <c r="J311" s="16">
+        <v>8</v>
+      </c>
+      <c r="K311" s="16">
+        <v>3</v>
+      </c>
+      <c r="L311" s="22">
+        <v>20250</v>
+      </c>
+      <c r="M311" s="22">
+        <v>20250</v>
+      </c>
+      <c r="N311" s="32">
+        <v>74.97</v>
+      </c>
+      <c r="O311" s="32">
+        <v>74.84</v>
+      </c>
+      <c r="P311" s="32">
+        <v>13</v>
+      </c>
+      <c r="Q311" s="36">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R311" s="40" t="e">
+        <v>0.375</v>
+      </c>
+      <c r="R311" s="40">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S311" s="38" t="e">
+        <v>4.7114937180083756E-3</v>
+      </c>
+      <c r="S311" s="38">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>4.7114937180083756E-3</v>
       </c>
       <c r="T311" s="36">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>162.81</v>
       </c>
     </row>
     <row r="312" spans="1:20" x14ac:dyDescent="0.15">
@@ -18958,30 +19106,48 @@
         <v>802</v>
       </c>
       <c r="G312" s="15"/>
-      <c r="H312" s="24"/>
-      <c r="I312" s="16"/>
-      <c r="J312" s="16"/>
-      <c r="K312" s="16"/>
-      <c r="L312" s="22"/>
-      <c r="M312" s="22"/>
-      <c r="N312" s="32"/>
-      <c r="O312" s="32"/>
-      <c r="P312" s="32"/>
-      <c r="Q312" s="36" t="e">
+      <c r="H312" s="24">
+        <v>2414512045</v>
+      </c>
+      <c r="I312" s="16">
+        <v>0</v>
+      </c>
+      <c r="J312" s="16">
+        <v>11</v>
+      </c>
+      <c r="K312" s="16">
+        <v>4</v>
+      </c>
+      <c r="L312" s="22">
+        <v>1123225</v>
+      </c>
+      <c r="M312" s="22">
+        <v>3893525</v>
+      </c>
+      <c r="N312" s="32">
+        <v>890</v>
+      </c>
+      <c r="O312" s="32">
+        <v>633.99</v>
+      </c>
+      <c r="P312" s="32">
+        <v>411.11</v>
+      </c>
+      <c r="Q312" s="36">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R312" s="40" t="e">
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="R312" s="40">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S312" s="38" t="e">
+        <v>4.651975136450396E-2</v>
+      </c>
+      <c r="S312" s="38">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>0.16125514917445774</v>
       </c>
       <c r="T312" s="36">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1935.1</v>
       </c>
     </row>
     <row r="313" spans="1:20" x14ac:dyDescent="0.15">
@@ -19004,30 +19170,48 @@
         <v>805</v>
       </c>
       <c r="G313" s="15"/>
-      <c r="H313" s="24"/>
-      <c r="I313" s="16"/>
-      <c r="J313" s="16"/>
-      <c r="K313" s="16"/>
-      <c r="L313" s="22"/>
-      <c r="M313" s="22"/>
-      <c r="N313" s="32"/>
-      <c r="O313" s="32"/>
-      <c r="P313" s="32"/>
-      <c r="Q313" s="36" t="e">
+      <c r="H313" s="24">
+        <v>456447120</v>
+      </c>
+      <c r="I313" s="16">
+        <v>0</v>
+      </c>
+      <c r="J313" s="16">
+        <v>9</v>
+      </c>
+      <c r="K313" s="16">
+        <v>3</v>
+      </c>
+      <c r="L313" s="22">
+        <v>16985808</v>
+      </c>
+      <c r="M313" s="22">
+        <v>16985808</v>
+      </c>
+      <c r="N313" s="32">
+        <v>81.61</v>
+      </c>
+      <c r="O313" s="32">
+        <v>58.87</v>
+      </c>
+      <c r="P313" s="32">
+        <v>3.6</v>
+      </c>
+      <c r="Q313" s="36">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R313" s="40" t="e">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R313" s="40">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S313" s="38" t="e">
+        <v>3.721309053280915</v>
+      </c>
+      <c r="S313" s="38">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>3.721309053280915</v>
       </c>
       <c r="T313" s="36">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>144.07999999999998</v>
       </c>
     </row>
     <row r="314" spans="1:20" x14ac:dyDescent="0.15">
@@ -19050,30 +19234,48 @@
         <v>69</v>
       </c>
       <c r="G314" s="15"/>
-      <c r="H314" s="24"/>
-      <c r="I314" s="16"/>
-      <c r="J314" s="16"/>
-      <c r="K314" s="16"/>
-      <c r="L314" s="22"/>
-      <c r="M314" s="22"/>
-      <c r="N314" s="32"/>
-      <c r="O314" s="32"/>
-      <c r="P314" s="32"/>
-      <c r="Q314" s="36" t="e">
+      <c r="H314" s="24">
+        <v>368755000</v>
+      </c>
+      <c r="I314" s="16">
+        <v>0</v>
+      </c>
+      <c r="J314" s="16">
+        <v>10</v>
+      </c>
+      <c r="K314" s="16">
+        <v>4</v>
+      </c>
+      <c r="L314" s="22">
+        <v>65307</v>
+      </c>
+      <c r="M314" s="22">
+        <v>147207</v>
+      </c>
+      <c r="N314" s="32">
+        <v>52.97</v>
+      </c>
+      <c r="O314" s="32">
+        <v>38.96</v>
+      </c>
+      <c r="P314" s="32">
+        <v>19.239999999999998</v>
+      </c>
+      <c r="Q314" s="36">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R314" s="40" t="e">
+        <v>0.4</v>
+      </c>
+      <c r="R314" s="40">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S314" s="38" t="e">
+        <v>1.7710132743962794E-2</v>
+      </c>
+      <c r="S314" s="38">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>3.9920001084731059E-2</v>
       </c>
       <c r="T314" s="36">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>111.17</v>
       </c>
     </row>
     <row r="315" spans="1:20" x14ac:dyDescent="0.15">
@@ -19096,30 +19298,48 @@
         <v>100</v>
       </c>
       <c r="G315" s="15"/>
-      <c r="H315" s="24"/>
-      <c r="I315" s="16"/>
-      <c r="J315" s="16"/>
-      <c r="K315" s="16"/>
-      <c r="L315" s="22"/>
-      <c r="M315" s="22"/>
-      <c r="N315" s="32"/>
-      <c r="O315" s="32"/>
-      <c r="P315" s="32"/>
-      <c r="Q315" s="36" t="e">
+      <c r="H315" s="24">
+        <v>2519166130</v>
+      </c>
+      <c r="I315" s="16">
+        <v>0</v>
+      </c>
+      <c r="J315" s="16">
+        <v>10</v>
+      </c>
+      <c r="K315" s="16">
+        <v>3</v>
+      </c>
+      <c r="L315" s="22">
+        <v>1257426</v>
+      </c>
+      <c r="M315" s="22">
+        <v>1267746</v>
+      </c>
+      <c r="N315" s="32">
+        <v>58.84</v>
+      </c>
+      <c r="O315" s="32">
+        <v>57.68</v>
+      </c>
+      <c r="P315" s="32">
+        <v>57.55</v>
+      </c>
+      <c r="Q315" s="36">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R315" s="40" t="e">
+        <v>0.3</v>
+      </c>
+      <c r="R315" s="40">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S315" s="38" t="e">
+        <v>4.9914373848778282E-2</v>
+      </c>
+      <c r="S315" s="38">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>5.0324033214911468E-2</v>
       </c>
       <c r="T315" s="36">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>174.07</v>
       </c>
     </row>
     <row r="316" spans="1:20" x14ac:dyDescent="0.15">
@@ -19142,30 +19362,48 @@
         <v>812</v>
       </c>
       <c r="G316" s="15"/>
-      <c r="H316" s="24"/>
-      <c r="I316" s="16"/>
-      <c r="J316" s="16"/>
-      <c r="K316" s="16"/>
-      <c r="L316" s="22"/>
-      <c r="M316" s="22"/>
-      <c r="N316" s="32"/>
-      <c r="O316" s="32"/>
-      <c r="P316" s="32"/>
-      <c r="Q316" s="36" t="e">
+      <c r="H316" s="24">
+        <v>6063367540</v>
+      </c>
+      <c r="I316" s="16">
+        <v>0</v>
+      </c>
+      <c r="J316" s="16">
+        <v>14</v>
+      </c>
+      <c r="K316" s="16">
+        <v>9</v>
+      </c>
+      <c r="L316" s="22">
+        <v>0</v>
+      </c>
+      <c r="M316" s="22">
+        <v>0</v>
+      </c>
+      <c r="N316" s="32">
+        <v>94.65</v>
+      </c>
+      <c r="O316" s="32">
+        <v>3</v>
+      </c>
+      <c r="P316" s="32">
+        <v>3</v>
+      </c>
+      <c r="Q316" s="36">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R316" s="40" t="e">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="R316" s="40">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S316" s="38" t="e">
+        <v>0</v>
+      </c>
+      <c r="S316" s="38">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="T316" s="36">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>100.65</v>
       </c>
     </row>
     <row r="317" spans="1:20" x14ac:dyDescent="0.15">
@@ -19188,30 +19426,48 @@
         <v>648</v>
       </c>
       <c r="G317" s="15"/>
-      <c r="H317" s="24"/>
-      <c r="I317" s="16"/>
-      <c r="J317" s="16"/>
-      <c r="K317" s="16"/>
-      <c r="L317" s="22"/>
-      <c r="M317" s="22"/>
-      <c r="N317" s="32"/>
-      <c r="O317" s="32"/>
-      <c r="P317" s="32"/>
-      <c r="Q317" s="36" t="e">
+      <c r="H317" s="24">
+        <v>3475107147</v>
+      </c>
+      <c r="I317" s="16">
+        <v>0</v>
+      </c>
+      <c r="J317" s="16">
+        <v>9</v>
+      </c>
+      <c r="K317" s="16">
+        <v>6</v>
+      </c>
+      <c r="L317" s="22">
+        <v>283200</v>
+      </c>
+      <c r="M317" s="22">
+        <v>1405300</v>
+      </c>
+      <c r="N317" s="32">
+        <v>152.19999999999999</v>
+      </c>
+      <c r="O317" s="32">
+        <v>127.04</v>
+      </c>
+      <c r="P317" s="32">
+        <v>67.010000000000005</v>
+      </c>
+      <c r="Q317" s="36">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R317" s="40" t="e">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="R317" s="40">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S317" s="38" t="e">
+        <v>8.1493890122059012E-3</v>
+      </c>
+      <c r="S317" s="38">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>4.0439040885780202E-2</v>
       </c>
       <c r="T317" s="36">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>346.25</v>
       </c>
     </row>
     <row r="318" spans="1:20" x14ac:dyDescent="0.15">
@@ -19234,30 +19490,48 @@
         <v>817</v>
       </c>
       <c r="G318" s="15"/>
-      <c r="H318" s="24"/>
-      <c r="I318" s="16"/>
-      <c r="J318" s="16"/>
-      <c r="K318" s="16"/>
-      <c r="L318" s="22"/>
-      <c r="M318" s="22"/>
-      <c r="N318" s="32"/>
-      <c r="O318" s="32"/>
-      <c r="P318" s="32"/>
-      <c r="Q318" s="36" t="e">
+      <c r="H318" s="24">
+        <v>679785627</v>
+      </c>
+      <c r="I318" s="16">
+        <v>0</v>
+      </c>
+      <c r="J318" s="16">
+        <v>13</v>
+      </c>
+      <c r="K318" s="16">
+        <v>6</v>
+      </c>
+      <c r="L318" s="22">
+        <v>2954856</v>
+      </c>
+      <c r="M318" s="22">
+        <v>3568732</v>
+      </c>
+      <c r="N318" s="32">
+        <v>535.48</v>
+      </c>
+      <c r="O318" s="32">
+        <v>173.58</v>
+      </c>
+      <c r="P318" s="32">
+        <v>5.95</v>
+      </c>
+      <c r="Q318" s="36">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R318" s="40" t="e">
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="R318" s="40">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S318" s="38" t="e">
+        <v>0.43467468016942939</v>
+      </c>
+      <c r="S318" s="38">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>0.52497903136748725</v>
       </c>
       <c r="T318" s="36">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>715.0100000000001</v>
       </c>
     </row>
     <row r="319" spans="1:20" x14ac:dyDescent="0.15">
@@ -19328,30 +19602,48 @@
       <c r="G320" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="H320" s="24"/>
-      <c r="I320" s="16"/>
-      <c r="J320" s="16"/>
-      <c r="K320" s="16"/>
-      <c r="L320" s="22"/>
-      <c r="M320" s="22"/>
-      <c r="N320" s="32"/>
-      <c r="O320" s="32"/>
-      <c r="P320" s="32"/>
-      <c r="Q320" s="36" t="e">
+      <c r="H320" s="24">
+        <v>352995758</v>
+      </c>
+      <c r="I320" s="16">
+        <v>0</v>
+      </c>
+      <c r="J320" s="16">
+        <v>9</v>
+      </c>
+      <c r="K320" s="16">
+        <v>3</v>
+      </c>
+      <c r="L320" s="22">
+        <v>0</v>
+      </c>
+      <c r="M320" s="22">
+        <v>0</v>
+      </c>
+      <c r="N320" s="32">
+        <v>59.39</v>
+      </c>
+      <c r="O320" s="32">
+        <v>5</v>
+      </c>
+      <c r="P320" s="32">
+        <v>5</v>
+      </c>
+      <c r="Q320" s="36">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R320" s="40" t="e">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R320" s="40">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S320" s="38" t="e">
+        <v>0</v>
+      </c>
+      <c r="S320" s="38">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="T320" s="36">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>69.39</v>
       </c>
     </row>
     <row r="321" spans="1:20" x14ac:dyDescent="0.15">
@@ -19374,30 +19666,48 @@
         <v>306</v>
       </c>
       <c r="G321" s="15"/>
-      <c r="H321" s="24"/>
-      <c r="I321" s="16"/>
-      <c r="J321" s="16"/>
-      <c r="K321" s="16"/>
-      <c r="L321" s="22"/>
-      <c r="M321" s="22"/>
-      <c r="N321" s="32"/>
-      <c r="O321" s="32"/>
-      <c r="P321" s="32"/>
-      <c r="Q321" s="36" t="e">
+      <c r="H321" s="24">
+        <v>592320838</v>
+      </c>
+      <c r="I321" s="16">
+        <v>0</v>
+      </c>
+      <c r="J321" s="16">
+        <v>9</v>
+      </c>
+      <c r="K321" s="16">
+        <v>6</v>
+      </c>
+      <c r="L321" s="22">
+        <v>11732271</v>
+      </c>
+      <c r="M321" s="22">
+        <v>14120811</v>
+      </c>
+      <c r="N321" s="32">
+        <v>118.57</v>
+      </c>
+      <c r="O321" s="32">
+        <v>89.99</v>
+      </c>
+      <c r="P321" s="32">
+        <v>89.99</v>
+      </c>
+      <c r="Q321" s="36">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R321" s="40" t="e">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="R321" s="40">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S321" s="38" t="e">
+        <v>1.980729065621696</v>
+      </c>
+      <c r="S321" s="38">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>2.3839801158574132</v>
       </c>
       <c r="T321" s="36">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>298.55</v>
       </c>
     </row>
     <row r="322" spans="1:20" x14ac:dyDescent="0.15">
@@ -19420,30 +19730,48 @@
         <v>826</v>
       </c>
       <c r="G322" s="15"/>
-      <c r="H322" s="24"/>
-      <c r="I322" s="16"/>
-      <c r="J322" s="16"/>
-      <c r="K322" s="16"/>
-      <c r="L322" s="22"/>
-      <c r="M322" s="22"/>
-      <c r="N322" s="32"/>
-      <c r="O322" s="32"/>
-      <c r="P322" s="32"/>
-      <c r="Q322" s="36" t="e">
+      <c r="H322" s="24">
+        <v>1672000000</v>
+      </c>
+      <c r="I322" s="16">
+        <v>0</v>
+      </c>
+      <c r="J322" s="16">
+        <v>11</v>
+      </c>
+      <c r="K322" s="16">
+        <v>4</v>
+      </c>
+      <c r="L322" s="22">
+        <v>0</v>
+      </c>
+      <c r="M322" s="22">
+        <v>0</v>
+      </c>
+      <c r="N322" s="32">
+        <v>119</v>
+      </c>
+      <c r="O322" s="32">
+        <v>100.2</v>
+      </c>
+      <c r="P322" s="32">
+        <v>52.6</v>
+      </c>
+      <c r="Q322" s="36">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R322" s="40" t="e">
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="R322" s="40">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S322" s="38" t="e">
+        <v>0</v>
+      </c>
+      <c r="S322" s="38">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="T322" s="36">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>271.8</v>
       </c>
     </row>
     <row r="323" spans="1:20" x14ac:dyDescent="0.15">
@@ -19466,30 +19794,48 @@
         <v>114</v>
       </c>
       <c r="G323" s="15"/>
-      <c r="H323" s="24"/>
-      <c r="I323" s="16"/>
-      <c r="J323" s="16"/>
-      <c r="K323" s="16"/>
-      <c r="L323" s="22"/>
-      <c r="M323" s="22"/>
-      <c r="N323" s="32"/>
-      <c r="O323" s="32"/>
-      <c r="P323" s="32"/>
-      <c r="Q323" s="36" t="e">
+      <c r="H323" s="24">
+        <v>827775000</v>
+      </c>
+      <c r="I323" s="16">
+        <v>1</v>
+      </c>
+      <c r="J323" s="16">
+        <v>9</v>
+      </c>
+      <c r="K323" s="16">
+        <v>3</v>
+      </c>
+      <c r="L323" s="22">
+        <v>0</v>
+      </c>
+      <c r="M323" s="22">
+        <v>0</v>
+      </c>
+      <c r="N323" s="32">
+        <v>49.2</v>
+      </c>
+      <c r="O323" s="32">
+        <v>44.27</v>
+      </c>
+      <c r="P323" s="32">
+        <v>42.19</v>
+      </c>
+      <c r="Q323" s="36">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R323" s="40" t="e">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R323" s="40">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S323" s="38" t="e">
+        <v>0</v>
+      </c>
+      <c r="S323" s="38">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="T323" s="36">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>135.66</v>
       </c>
     </row>
     <row r="324" spans="1:20" x14ac:dyDescent="0.15">
@@ -19512,30 +19858,48 @@
         <v>126</v>
       </c>
       <c r="G324" s="15"/>
-      <c r="H324" s="24"/>
-      <c r="I324" s="16"/>
-      <c r="J324" s="16"/>
-      <c r="K324" s="16"/>
-      <c r="L324" s="22"/>
-      <c r="M324" s="22"/>
-      <c r="N324" s="32"/>
-      <c r="O324" s="32"/>
-      <c r="P324" s="32"/>
-      <c r="Q324" s="36" t="e">
+      <c r="H324" s="24">
+        <v>717114512</v>
+      </c>
+      <c r="I324" s="16">
+        <v>0</v>
+      </c>
+      <c r="J324" s="16">
+        <v>17</v>
+      </c>
+      <c r="K324" s="16">
+        <v>8</v>
+      </c>
+      <c r="L324" s="22">
+        <v>0</v>
+      </c>
+      <c r="M324" s="22">
+        <v>0</v>
+      </c>
+      <c r="N324" s="32">
+        <v>47.74</v>
+      </c>
+      <c r="O324" s="32">
+        <v>1.9</v>
+      </c>
+      <c r="P324" s="32">
+        <v>1.9</v>
+      </c>
+      <c r="Q324" s="36">
         <f t="shared" ref="Q324:Q387" si="20">K324/J324</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R324" s="40" t="e">
+        <v>0.47058823529411764</v>
+      </c>
+      <c r="R324" s="40">
         <f t="shared" ref="R324:R387" si="21">L324/H324*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S324" s="38" t="e">
+        <v>0</v>
+      </c>
+      <c r="S324" s="38">
         <f t="shared" ref="S324:S387" si="22">M324/H324*100</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="T324" s="36">
         <f t="shared" ref="T324:T387" si="23">N324+O324+P324</f>
-        <v>0</v>
+        <v>51.54</v>
       </c>
     </row>
     <row r="325" spans="1:20" x14ac:dyDescent="0.15">
@@ -19558,30 +19922,48 @@
         <v>833</v>
       </c>
       <c r="G325" s="15"/>
-      <c r="H325" s="24"/>
-      <c r="I325" s="16"/>
-      <c r="J325" s="16"/>
-      <c r="K325" s="16"/>
-      <c r="L325" s="22"/>
-      <c r="M325" s="22"/>
-      <c r="N325" s="32"/>
-      <c r="O325" s="32"/>
-      <c r="P325" s="32"/>
-      <c r="Q325" s="36" t="e">
+      <c r="H325" s="24">
+        <v>4390294580</v>
+      </c>
+      <c r="I325" s="16">
+        <v>0</v>
+      </c>
+      <c r="J325" s="16">
+        <v>12</v>
+      </c>
+      <c r="K325" s="16">
+        <v>4</v>
+      </c>
+      <c r="L325" s="22">
+        <v>0</v>
+      </c>
+      <c r="M325" s="22">
+        <v>109699</v>
+      </c>
+      <c r="N325" s="32">
+        <v>100.04</v>
+      </c>
+      <c r="O325" s="32">
+        <v>100.04</v>
+      </c>
+      <c r="P325" s="32">
+        <v>88.04</v>
+      </c>
+      <c r="Q325" s="36">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R325" s="40" t="e">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R325" s="40">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S325" s="38" t="e">
+        <v>0</v>
+      </c>
+      <c r="S325" s="38">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>2.4986706017344285E-3</v>
       </c>
       <c r="T325" s="36">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>288.12</v>
       </c>
     </row>
     <row r="326" spans="1:20" x14ac:dyDescent="0.15">
@@ -19604,30 +19986,48 @@
         <v>220</v>
       </c>
       <c r="G326" s="15"/>
-      <c r="H326" s="24"/>
-      <c r="I326" s="16"/>
-      <c r="J326" s="16"/>
-      <c r="K326" s="16"/>
-      <c r="L326" s="22"/>
-      <c r="M326" s="22"/>
-      <c r="N326" s="32"/>
-      <c r="O326" s="32"/>
-      <c r="P326" s="32"/>
-      <c r="Q326" s="36" t="e">
+      <c r="H326" s="24">
+        <v>665680392</v>
+      </c>
+      <c r="I326" s="16">
+        <v>0</v>
+      </c>
+      <c r="J326" s="16">
+        <v>9</v>
+      </c>
+      <c r="K326" s="16">
+        <v>3</v>
+      </c>
+      <c r="L326" s="22">
+        <v>0</v>
+      </c>
+      <c r="M326" s="22">
+        <v>0</v>
+      </c>
+      <c r="N326" s="32">
+        <v>67</v>
+      </c>
+      <c r="O326" s="32">
+        <v>10</v>
+      </c>
+      <c r="P326" s="32">
+        <v>8</v>
+      </c>
+      <c r="Q326" s="36">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R326" s="40" t="e">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R326" s="40">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S326" s="38" t="e">
+        <v>0</v>
+      </c>
+      <c r="S326" s="38">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="T326" s="36">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="327" spans="1:20" x14ac:dyDescent="0.15">
@@ -19650,30 +20050,48 @@
         <v>838</v>
       </c>
       <c r="G327" s="15"/>
-      <c r="H327" s="24"/>
-      <c r="I327" s="16"/>
-      <c r="J327" s="16"/>
-      <c r="K327" s="16"/>
-      <c r="L327" s="22"/>
-      <c r="M327" s="22"/>
-      <c r="N327" s="32"/>
-      <c r="O327" s="32"/>
-      <c r="P327" s="32"/>
-      <c r="Q327" s="36" t="e">
+      <c r="H327" s="24">
+        <v>768873076</v>
+      </c>
+      <c r="I327" s="16">
+        <v>1</v>
+      </c>
+      <c r="J327" s="16">
+        <v>9</v>
+      </c>
+      <c r="K327" s="16">
+        <v>3</v>
+      </c>
+      <c r="L327" s="22">
+        <v>1280</v>
+      </c>
+      <c r="M327" s="22">
+        <v>1280</v>
+      </c>
+      <c r="N327" s="32">
+        <v>90</v>
+      </c>
+      <c r="O327" s="32">
+        <v>71.25</v>
+      </c>
+      <c r="P327" s="32">
+        <v>63</v>
+      </c>
+      <c r="Q327" s="36">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R327" s="40" t="e">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R327" s="40">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S327" s="38" t="e">
+        <v>1.6647741219644424E-4</v>
+      </c>
+      <c r="S327" s="38">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>1.6647741219644424E-4</v>
       </c>
       <c r="T327" s="36">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>224.25</v>
       </c>
     </row>
     <row r="328" spans="1:20" x14ac:dyDescent="0.15">
@@ -19696,30 +20114,48 @@
         <v>755</v>
       </c>
       <c r="G328" s="15"/>
-      <c r="H328" s="24"/>
-      <c r="I328" s="16"/>
-      <c r="J328" s="16"/>
-      <c r="K328" s="16"/>
-      <c r="L328" s="22"/>
-      <c r="M328" s="22"/>
-      <c r="N328" s="32"/>
-      <c r="O328" s="32"/>
-      <c r="P328" s="32"/>
-      <c r="Q328" s="36" t="e">
+      <c r="H328" s="24">
+        <v>776753269</v>
+      </c>
+      <c r="I328" s="16">
+        <v>0</v>
+      </c>
+      <c r="J328" s="16">
+        <v>9</v>
+      </c>
+      <c r="K328" s="16">
+        <v>3</v>
+      </c>
+      <c r="L328" s="22">
+        <v>0</v>
+      </c>
+      <c r="M328" s="22">
+        <v>0</v>
+      </c>
+      <c r="N328" s="32">
+        <v>50.3</v>
+      </c>
+      <c r="O328" s="32">
+        <v>45.2</v>
+      </c>
+      <c r="P328" s="32">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="Q328" s="36">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R328" s="40" t="e">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R328" s="40">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S328" s="38" t="e">
+        <v>0</v>
+      </c>
+      <c r="S328" s="38">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="T328" s="36">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>135.30000000000001</v>
       </c>
     </row>
     <row r="329" spans="1:20" x14ac:dyDescent="0.15">
@@ -19742,30 +20178,48 @@
         <v>229</v>
       </c>
       <c r="G329" s="15"/>
-      <c r="H329" s="24"/>
-      <c r="I329" s="16"/>
-      <c r="J329" s="16"/>
-      <c r="K329" s="16"/>
-      <c r="L329" s="22"/>
-      <c r="M329" s="22"/>
-      <c r="N329" s="32"/>
-      <c r="O329" s="32"/>
-      <c r="P329" s="32"/>
-      <c r="Q329" s="36" t="e">
+      <c r="H329" s="24">
+        <v>295494670</v>
+      </c>
+      <c r="I329" s="16">
+        <v>0</v>
+      </c>
+      <c r="J329" s="16">
+        <v>8</v>
+      </c>
+      <c r="K329" s="16">
+        <v>3</v>
+      </c>
+      <c r="L329" s="22">
+        <v>883400</v>
+      </c>
+      <c r="M329" s="22">
+        <v>883400</v>
+      </c>
+      <c r="N329" s="32">
+        <v>527</v>
+      </c>
+      <c r="O329" s="32">
+        <v>446</v>
+      </c>
+      <c r="P329" s="32">
+        <v>352</v>
+      </c>
+      <c r="Q329" s="36">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R329" s="40" t="e">
+        <v>0.375</v>
+      </c>
+      <c r="R329" s="40">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S329" s="38" t="e">
+        <v>0.29895632296853275</v>
+      </c>
+      <c r="S329" s="38">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>0.29895632296853275</v>
       </c>
       <c r="T329" s="36">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="330" spans="1:20" x14ac:dyDescent="0.15">
@@ -19788,30 +20242,48 @@
         <v>85</v>
       </c>
       <c r="G330" s="15"/>
-      <c r="H330" s="24"/>
-      <c r="I330" s="16"/>
-      <c r="J330" s="16"/>
-      <c r="K330" s="16"/>
-      <c r="L330" s="22"/>
-      <c r="M330" s="22"/>
-      <c r="N330" s="32"/>
-      <c r="O330" s="32"/>
-      <c r="P330" s="32"/>
-      <c r="Q330" s="36" t="e">
+      <c r="H330" s="24">
+        <v>638206348</v>
+      </c>
+      <c r="I330" s="16">
+        <v>0</v>
+      </c>
+      <c r="J330" s="16">
+        <v>11</v>
+      </c>
+      <c r="K330" s="16">
+        <v>4</v>
+      </c>
+      <c r="L330" s="22">
+        <v>0</v>
+      </c>
+      <c r="M330" s="22">
+        <v>1708</v>
+      </c>
+      <c r="N330" s="32">
+        <v>35.4</v>
+      </c>
+      <c r="O330" s="32">
+        <v>35.21</v>
+      </c>
+      <c r="P330" s="32">
+        <v>29.86</v>
+      </c>
+      <c r="Q330" s="36">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R330" s="40" t="e">
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="R330" s="40">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S330" s="38" t="e">
+        <v>0</v>
+      </c>
+      <c r="S330" s="38">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>2.6762504092171769E-4</v>
       </c>
       <c r="T330" s="36">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>100.47</v>
       </c>
     </row>
     <row r="331" spans="1:20" x14ac:dyDescent="0.15">
@@ -19834,30 +20306,48 @@
         <v>77</v>
       </c>
       <c r="G331" s="15"/>
-      <c r="H331" s="24"/>
-      <c r="I331" s="16"/>
-      <c r="J331" s="16"/>
-      <c r="K331" s="16"/>
-      <c r="L331" s="22"/>
-      <c r="M331" s="22"/>
-      <c r="N331" s="32"/>
-      <c r="O331" s="32"/>
-      <c r="P331" s="32"/>
-      <c r="Q331" s="36" t="e">
+      <c r="H331" s="24">
+        <v>787041461</v>
+      </c>
+      <c r="I331" s="16">
+        <v>1</v>
+      </c>
+      <c r="J331" s="16">
+        <v>9</v>
+      </c>
+      <c r="K331" s="16">
+        <v>4</v>
+      </c>
+      <c r="L331" s="22">
+        <v>2000000</v>
+      </c>
+      <c r="M331" s="22">
+        <v>2000000</v>
+      </c>
+      <c r="N331" s="32">
+        <v>63.26</v>
+      </c>
+      <c r="O331" s="32">
+        <v>28.9</v>
+      </c>
+      <c r="P331" s="32">
+        <v>28.9</v>
+      </c>
+      <c r="Q331" s="36">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R331" s="40" t="e">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="R331" s="40">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S331" s="38" t="e">
+        <v>0.2541162186625896</v>
+      </c>
+      <c r="S331" s="38">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>0.2541162186625896</v>
       </c>
       <c r="T331" s="36">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>121.06</v>
       </c>
     </row>
     <row r="332" spans="1:20" x14ac:dyDescent="0.15">
@@ -19880,30 +20370,48 @@
         <v>56</v>
       </c>
       <c r="G332" s="15"/>
-      <c r="H332" s="24"/>
-      <c r="I332" s="16"/>
-      <c r="J332" s="16"/>
-      <c r="K332" s="16"/>
-      <c r="L332" s="22"/>
-      <c r="M332" s="22"/>
-      <c r="N332" s="32"/>
-      <c r="O332" s="32"/>
-      <c r="P332" s="32"/>
-      <c r="Q332" s="36" t="e">
+      <c r="H332" s="24">
+        <v>492089200</v>
+      </c>
+      <c r="I332" s="16">
+        <v>1</v>
+      </c>
+      <c r="J332" s="16">
+        <v>6</v>
+      </c>
+      <c r="K332" s="16">
+        <v>3</v>
+      </c>
+      <c r="L332" s="22">
+        <v>60000000</v>
+      </c>
+      <c r="M332" s="22">
+        <v>60000000</v>
+      </c>
+      <c r="N332" s="32">
+        <v>33.549999999999997</v>
+      </c>
+      <c r="O332" s="32">
+        <v>31.44</v>
+      </c>
+      <c r="P332" s="32">
+        <v>29.44</v>
+      </c>
+      <c r="Q332" s="36">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R332" s="40" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="R332" s="40">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S332" s="38" t="e">
+        <v>12.192911366475833</v>
+      </c>
+      <c r="S332" s="38">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>12.192911366475833</v>
       </c>
       <c r="T332" s="36">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>94.429999999999993</v>
       </c>
     </row>
     <row r="333" spans="1:20" x14ac:dyDescent="0.15">
@@ -19926,30 +20434,48 @@
         <v>853</v>
       </c>
       <c r="G333" s="15"/>
-      <c r="H333" s="24"/>
-      <c r="I333" s="16"/>
-      <c r="J333" s="16"/>
-      <c r="K333" s="16"/>
-      <c r="L333" s="22"/>
-      <c r="M333" s="22"/>
-      <c r="N333" s="32"/>
-      <c r="O333" s="32"/>
-      <c r="P333" s="32"/>
-      <c r="Q333" s="36" t="e">
+      <c r="H333" s="24">
+        <v>557486925</v>
+      </c>
+      <c r="I333" s="16">
+        <v>1</v>
+      </c>
+      <c r="J333" s="16">
+        <v>9</v>
+      </c>
+      <c r="K333" s="16">
+        <v>3</v>
+      </c>
+      <c r="L333" s="22">
+        <v>2785000</v>
+      </c>
+      <c r="M333" s="22">
+        <v>4315895</v>
+      </c>
+      <c r="N333" s="32">
+        <v>88</v>
+      </c>
+      <c r="O333" s="32">
+        <v>75</v>
+      </c>
+      <c r="P333" s="32">
+        <v>68</v>
+      </c>
+      <c r="Q333" s="36">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R333" s="40" t="e">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R333" s="40">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S333" s="38" t="e">
+        <v>0.49956328572190284</v>
+      </c>
+      <c r="S333" s="38">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>0.77416972604335066</v>
       </c>
       <c r="T333" s="36">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>231</v>
       </c>
     </row>
     <row r="334" spans="1:20" x14ac:dyDescent="0.15">
@@ -19972,30 +20498,48 @@
         <v>85</v>
       </c>
       <c r="G334" s="15"/>
-      <c r="H334" s="24"/>
-      <c r="I334" s="16"/>
-      <c r="J334" s="16"/>
-      <c r="K334" s="16"/>
-      <c r="L334" s="22"/>
-      <c r="M334" s="22"/>
-      <c r="N334" s="32"/>
-      <c r="O334" s="32"/>
-      <c r="P334" s="32"/>
-      <c r="Q334" s="36" t="e">
+      <c r="H334" s="24">
+        <v>291200000</v>
+      </c>
+      <c r="I334" s="16">
+        <v>0</v>
+      </c>
+      <c r="J334" s="16">
+        <v>9</v>
+      </c>
+      <c r="K334" s="16">
+        <v>3</v>
+      </c>
+      <c r="L334" s="22">
+        <v>0</v>
+      </c>
+      <c r="M334" s="22">
+        <v>0</v>
+      </c>
+      <c r="N334" s="32">
+        <v>50.72</v>
+      </c>
+      <c r="O334" s="32">
+        <v>43.01</v>
+      </c>
+      <c r="P334" s="32">
+        <v>5</v>
+      </c>
+      <c r="Q334" s="36">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R334" s="40" t="e">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R334" s="40">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S334" s="38" t="e">
+        <v>0</v>
+      </c>
+      <c r="S334" s="38">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="T334" s="36">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>98.72999999999999</v>
       </c>
     </row>
     <row r="335" spans="1:20" x14ac:dyDescent="0.15">
@@ -20020,30 +20564,48 @@
       <c r="G335" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="H335" s="24"/>
-      <c r="I335" s="16"/>
-      <c r="J335" s="16"/>
-      <c r="K335" s="16"/>
-      <c r="L335" s="22"/>
-      <c r="M335" s="22"/>
-      <c r="N335" s="32"/>
-      <c r="O335" s="32"/>
-      <c r="P335" s="32"/>
-      <c r="Q335" s="36" t="e">
+      <c r="H335" s="24">
+        <v>225060000</v>
+      </c>
+      <c r="I335" s="16">
+        <v>0</v>
+      </c>
+      <c r="J335" s="16">
+        <v>9</v>
+      </c>
+      <c r="K335" s="16">
+        <v>3</v>
+      </c>
+      <c r="L335" s="22">
+        <v>199930</v>
+      </c>
+      <c r="M335" s="22">
+        <v>199930</v>
+      </c>
+      <c r="N335" s="32">
+        <v>21.1</v>
+      </c>
+      <c r="O335" s="32">
+        <v>5.24</v>
+      </c>
+      <c r="P335" s="32">
+        <v>5.24</v>
+      </c>
+      <c r="Q335" s="36">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R335" s="40" t="e">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R335" s="40">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S335" s="38" t="e">
+        <v>8.8834088687461121E-2</v>
+      </c>
+      <c r="S335" s="38">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>8.8834088687461121E-2</v>
       </c>
       <c r="T335" s="36">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>31.580000000000005</v>
       </c>
     </row>
     <row r="336" spans="1:20" x14ac:dyDescent="0.15">
@@ -20066,30 +20628,48 @@
         <v>860</v>
       </c>
       <c r="G336" s="15"/>
-      <c r="H336" s="24"/>
-      <c r="I336" s="16"/>
-      <c r="J336" s="16"/>
-      <c r="K336" s="16"/>
-      <c r="L336" s="22"/>
-      <c r="M336" s="22"/>
-      <c r="N336" s="32"/>
-      <c r="O336" s="32"/>
-      <c r="P336" s="32"/>
-      <c r="Q336" s="36" t="e">
+      <c r="H336" s="24">
+        <v>1759162938</v>
+      </c>
+      <c r="I336" s="16">
+        <v>0</v>
+      </c>
+      <c r="J336" s="16">
+        <v>13</v>
+      </c>
+      <c r="K336" s="43">
+        <v>3</v>
+      </c>
+      <c r="L336" s="22">
+        <v>45900</v>
+      </c>
+      <c r="M336" s="22">
+        <v>126300</v>
+      </c>
+      <c r="N336" s="32">
+        <v>64.53</v>
+      </c>
+      <c r="O336" s="32">
+        <v>64.53</v>
+      </c>
+      <c r="P336" s="32">
+        <v>64.53</v>
+      </c>
+      <c r="Q336" s="36">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R336" s="40" t="e">
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="R336" s="40">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S336" s="38" t="e">
+        <v>2.6091954877234913E-3</v>
+      </c>
+      <c r="S336" s="38">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>7.1795509825594104E-3</v>
       </c>
       <c r="T336" s="36">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>193.59</v>
       </c>
     </row>
     <row r="337" spans="1:20" x14ac:dyDescent="0.15">
@@ -20112,30 +20692,48 @@
         <v>863</v>
       </c>
       <c r="G337" s="15"/>
-      <c r="H337" s="24"/>
-      <c r="I337" s="16"/>
-      <c r="J337" s="16"/>
-      <c r="K337" s="16"/>
-      <c r="L337" s="22"/>
-      <c r="M337" s="22"/>
-      <c r="N337" s="32"/>
-      <c r="O337" s="32"/>
-      <c r="P337" s="32"/>
-      <c r="Q337" s="36" t="e">
+      <c r="H337" s="24">
+        <v>1377940025</v>
+      </c>
+      <c r="I337" s="16">
+        <v>0</v>
+      </c>
+      <c r="J337" s="16">
+        <v>13</v>
+      </c>
+      <c r="K337" s="43">
+        <v>5</v>
+      </c>
+      <c r="L337" s="22">
+        <v>297000</v>
+      </c>
+      <c r="M337" s="22">
+        <v>412936</v>
+      </c>
+      <c r="N337" s="32">
+        <v>118.03</v>
+      </c>
+      <c r="O337" s="32">
+        <v>83.67</v>
+      </c>
+      <c r="P337" s="32">
+        <v>6</v>
+      </c>
+      <c r="Q337" s="36">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R337" s="40" t="e">
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="R337" s="40">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S337" s="38" t="e">
+        <v>2.1553913422320395E-2</v>
+      </c>
+      <c r="S337" s="38">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>2.9967632299526245E-2</v>
       </c>
       <c r="T337" s="36">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>207.7</v>
       </c>
     </row>
     <row r="338" spans="1:20" x14ac:dyDescent="0.15">
@@ -20158,30 +20756,48 @@
         <v>866</v>
       </c>
       <c r="G338" s="15"/>
-      <c r="H338" s="24"/>
-      <c r="I338" s="16"/>
-      <c r="J338" s="16"/>
-      <c r="K338" s="16"/>
-      <c r="L338" s="22"/>
-      <c r="M338" s="22"/>
-      <c r="N338" s="32"/>
-      <c r="O338" s="32"/>
-      <c r="P338" s="32"/>
-      <c r="Q338" s="36" t="e">
+      <c r="H338" s="24">
+        <v>1587139292</v>
+      </c>
+      <c r="I338" s="16">
+        <v>0</v>
+      </c>
+      <c r="J338" s="16">
+        <v>7</v>
+      </c>
+      <c r="K338" s="43">
+        <v>3</v>
+      </c>
+      <c r="L338" s="22">
+        <v>237131</v>
+      </c>
+      <c r="M338" s="22">
+        <v>4144051</v>
+      </c>
+      <c r="N338" s="32">
+        <v>65.790000000000006</v>
+      </c>
+      <c r="O338" s="32">
+        <v>28.3</v>
+      </c>
+      <c r="P338" s="32">
+        <v>26.71</v>
+      </c>
+      <c r="Q338" s="36">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R338" s="40" t="e">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="R338" s="40">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S338" s="38" t="e">
+        <v>1.4940780635654504E-2</v>
+      </c>
+      <c r="S338" s="38">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>0.26110190963629676</v>
       </c>
       <c r="T338" s="36">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>120.80000000000001</v>
       </c>
     </row>
     <row r="339" spans="1:20" x14ac:dyDescent="0.15">
@@ -20204,30 +20820,48 @@
         <v>52</v>
       </c>
       <c r="G339" s="15"/>
-      <c r="H339" s="24"/>
-      <c r="I339" s="16"/>
-      <c r="J339" s="16"/>
-      <c r="K339" s="16"/>
-      <c r="L339" s="22"/>
-      <c r="M339" s="22"/>
-      <c r="N339" s="32"/>
-      <c r="O339" s="32"/>
-      <c r="P339" s="32"/>
-      <c r="Q339" s="36" t="e">
+      <c r="H339" s="24">
+        <v>386100000</v>
+      </c>
+      <c r="I339" s="16">
+        <v>0</v>
+      </c>
+      <c r="J339" s="16">
+        <v>13</v>
+      </c>
+      <c r="K339" s="43">
+        <v>5</v>
+      </c>
+      <c r="L339" s="22">
+        <v>2748535</v>
+      </c>
+      <c r="M339" s="22">
+        <v>3079135</v>
+      </c>
+      <c r="N339" s="32">
+        <v>147.136</v>
+      </c>
+      <c r="O339" s="32">
+        <v>131.88</v>
+      </c>
+      <c r="P339" s="32">
+        <v>129.88</v>
+      </c>
+      <c r="Q339" s="36">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R339" s="40" t="e">
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="R339" s="40">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S339" s="38" t="e">
+        <v>0.71187127687127694</v>
+      </c>
+      <c r="S339" s="38">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>0.7974967624967626</v>
       </c>
       <c r="T339" s="36">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>408.89599999999996</v>
       </c>
     </row>
     <row r="340" spans="1:20" x14ac:dyDescent="0.15">
@@ -20250,30 +20884,48 @@
         <v>220</v>
       </c>
       <c r="G340" s="15"/>
-      <c r="H340" s="24"/>
-      <c r="I340" s="16"/>
-      <c r="J340" s="16"/>
-      <c r="K340" s="16"/>
-      <c r="L340" s="22"/>
-      <c r="M340" s="22"/>
-      <c r="N340" s="32"/>
-      <c r="O340" s="32"/>
-      <c r="P340" s="32"/>
-      <c r="Q340" s="36" t="e">
+      <c r="H340" s="24">
+        <v>330129367</v>
+      </c>
+      <c r="I340" s="16">
+        <v>0</v>
+      </c>
+      <c r="J340" s="16">
+        <v>9</v>
+      </c>
+      <c r="K340" s="43">
+        <v>3</v>
+      </c>
+      <c r="L340" s="22">
+        <v>0</v>
+      </c>
+      <c r="M340" s="22">
+        <v>33000</v>
+      </c>
+      <c r="N340" s="32">
+        <v>5.95</v>
+      </c>
+      <c r="O340" s="32">
+        <v>5.95</v>
+      </c>
+      <c r="P340" s="32">
+        <v>5.95</v>
+      </c>
+      <c r="Q340" s="36">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R340" s="40" t="e">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R340" s="40">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S340" s="38" t="e">
+        <v>0</v>
+      </c>
+      <c r="S340" s="38">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>9.9960813240828703E-3</v>
       </c>
       <c r="T340" s="36">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>17.850000000000001</v>
       </c>
     </row>
     <row r="341" spans="1:20" x14ac:dyDescent="0.15">
@@ -20296,30 +20948,48 @@
         <v>220</v>
       </c>
       <c r="G341" s="15"/>
-      <c r="H341" s="24"/>
-      <c r="I341" s="16"/>
-      <c r="J341" s="16"/>
-      <c r="K341" s="16"/>
-      <c r="L341" s="22"/>
-      <c r="M341" s="22"/>
-      <c r="N341" s="32"/>
-      <c r="O341" s="32"/>
-      <c r="P341" s="32"/>
-      <c r="Q341" s="36" t="e">
+      <c r="H341" s="24">
+        <v>1350128513</v>
+      </c>
+      <c r="I341" s="16">
+        <v>0</v>
+      </c>
+      <c r="J341" s="16">
+        <v>9</v>
+      </c>
+      <c r="K341" s="43">
+        <v>3</v>
+      </c>
+      <c r="L341" s="22">
+        <v>0</v>
+      </c>
+      <c r="M341" s="22">
+        <v>0</v>
+      </c>
+      <c r="N341" s="32">
+        <v>103.07</v>
+      </c>
+      <c r="O341" s="32">
+        <v>77.790000000000006</v>
+      </c>
+      <c r="P341" s="32">
+        <v>77.790000000000006</v>
+      </c>
+      <c r="Q341" s="36">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R341" s="40" t="e">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R341" s="40">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S341" s="38" t="e">
+        <v>0</v>
+      </c>
+      <c r="S341" s="38">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="T341" s="36">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>258.65000000000003</v>
       </c>
     </row>
     <row r="342" spans="1:20" x14ac:dyDescent="0.15">
@@ -20342,30 +21012,48 @@
         <v>817</v>
       </c>
       <c r="G342" s="15"/>
-      <c r="H342" s="24"/>
-      <c r="I342" s="16"/>
-      <c r="J342" s="16"/>
-      <c r="K342" s="16"/>
-      <c r="L342" s="22"/>
-      <c r="M342" s="22"/>
-      <c r="N342" s="32"/>
-      <c r="O342" s="32"/>
-      <c r="P342" s="32"/>
-      <c r="Q342" s="36" t="e">
+      <c r="H342" s="24">
+        <v>1472706817</v>
+      </c>
+      <c r="I342" s="16">
+        <v>0</v>
+      </c>
+      <c r="J342" s="16">
+        <v>12</v>
+      </c>
+      <c r="K342" s="16">
+        <v>4</v>
+      </c>
+      <c r="L342" s="22">
+        <v>58458</v>
+      </c>
+      <c r="M342" s="22">
+        <v>82856</v>
+      </c>
+      <c r="N342" s="32">
+        <v>62.36</v>
+      </c>
+      <c r="O342" s="32">
+        <v>56.2</v>
+      </c>
+      <c r="P342" s="32">
+        <v>49.89</v>
+      </c>
+      <c r="Q342" s="36">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R342" s="40" t="e">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R342" s="40">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S342" s="38" t="e">
+        <v>3.9694255044654958E-3</v>
+      </c>
+      <c r="S342" s="38">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>5.626102836189968E-3</v>
       </c>
       <c r="T342" s="36">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>168.45</v>
       </c>
     </row>
     <row r="343" spans="1:20" x14ac:dyDescent="0.15">
@@ -20388,30 +21076,48 @@
         <v>56</v>
       </c>
       <c r="G343" s="15"/>
-      <c r="H343" s="24"/>
-      <c r="I343" s="16"/>
-      <c r="J343" s="16"/>
-      <c r="K343" s="16"/>
-      <c r="L343" s="22"/>
-      <c r="M343" s="22"/>
-      <c r="N343" s="32"/>
-      <c r="O343" s="32"/>
-      <c r="P343" s="32"/>
-      <c r="Q343" s="36" t="e">
+      <c r="H343" s="24">
+        <v>1300000000</v>
+      </c>
+      <c r="I343" s="16">
+        <v>0</v>
+      </c>
+      <c r="J343" s="16">
+        <v>15</v>
+      </c>
+      <c r="K343" s="16">
+        <v>5</v>
+      </c>
+      <c r="L343" s="22">
+        <v>0</v>
+      </c>
+      <c r="M343" s="22">
+        <v>0</v>
+      </c>
+      <c r="N343" s="32">
+        <v>49.44</v>
+      </c>
+      <c r="O343" s="32">
+        <v>28.9</v>
+      </c>
+      <c r="P343" s="32">
+        <v>27.4</v>
+      </c>
+      <c r="Q343" s="36">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R343" s="40" t="e">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R343" s="40">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S343" s="38" t="e">
+        <v>0</v>
+      </c>
+      <c r="S343" s="38">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="T343" s="36">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>105.74000000000001</v>
       </c>
     </row>
     <row r="344" spans="1:20" x14ac:dyDescent="0.15">
@@ -20434,30 +21140,48 @@
         <v>204</v>
       </c>
       <c r="G344" s="15"/>
-      <c r="H344" s="24"/>
-      <c r="I344" s="16"/>
-      <c r="J344" s="16"/>
-      <c r="K344" s="16"/>
-      <c r="L344" s="22"/>
-      <c r="M344" s="22"/>
-      <c r="N344" s="32"/>
-      <c r="O344" s="32"/>
-      <c r="P344" s="32"/>
-      <c r="Q344" s="36" t="e">
+      <c r="H344" s="24">
+        <v>438767802</v>
+      </c>
+      <c r="I344" s="16">
+        <v>1</v>
+      </c>
+      <c r="J344" s="16">
+        <v>9</v>
+      </c>
+      <c r="K344" s="16">
+        <v>3</v>
+      </c>
+      <c r="L344" s="22">
+        <v>72856493</v>
+      </c>
+      <c r="M344" s="22">
+        <v>79472207</v>
+      </c>
+      <c r="N344" s="32">
+        <v>76.8</v>
+      </c>
+      <c r="O344" s="32">
+        <v>54.94</v>
+      </c>
+      <c r="P344" s="32">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="Q344" s="36">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R344" s="40" t="e">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R344" s="40">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S344" s="38" t="e">
+        <v>16.604794761125159</v>
+      </c>
+      <c r="S344" s="38">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>18.112588626090663</v>
       </c>
       <c r="T344" s="36">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>172.54000000000002</v>
       </c>
     </row>
     <row r="345" spans="1:20" x14ac:dyDescent="0.15">
@@ -20480,30 +21204,48 @@
         <v>110</v>
       </c>
       <c r="G345" s="15"/>
-      <c r="H345" s="24"/>
-      <c r="I345" s="16"/>
-      <c r="J345" s="16"/>
-      <c r="K345" s="16"/>
-      <c r="L345" s="22"/>
-      <c r="M345" s="22"/>
-      <c r="N345" s="32"/>
-      <c r="O345" s="32"/>
-      <c r="P345" s="32"/>
-      <c r="Q345" s="36" t="e">
+      <c r="H345" s="24">
+        <v>1850385487</v>
+      </c>
+      <c r="I345" s="16">
+        <v>0</v>
+      </c>
+      <c r="J345" s="16">
+        <v>15</v>
+      </c>
+      <c r="K345" s="16">
+        <v>5</v>
+      </c>
+      <c r="L345" s="22">
+        <v>0</v>
+      </c>
+      <c r="M345" s="22">
+        <v>0</v>
+      </c>
+      <c r="N345" s="32">
+        <v>74.59</v>
+      </c>
+      <c r="O345" s="32">
+        <v>70.459999999999994</v>
+      </c>
+      <c r="P345" s="32">
+        <v>63.99</v>
+      </c>
+      <c r="Q345" s="36">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R345" s="40" t="e">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R345" s="40">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S345" s="38" t="e">
+        <v>0</v>
+      </c>
+      <c r="S345" s="38">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="T345" s="36">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>209.04000000000002</v>
       </c>
     </row>
     <row r="346" spans="1:20" x14ac:dyDescent="0.15">
@@ -20526,30 +21268,48 @@
         <v>883</v>
       </c>
       <c r="G346" s="15"/>
-      <c r="H346" s="24"/>
-      <c r="I346" s="16"/>
-      <c r="J346" s="16"/>
-      <c r="K346" s="16"/>
-      <c r="L346" s="22"/>
-      <c r="M346" s="22"/>
-      <c r="N346" s="32"/>
-      <c r="O346" s="32"/>
-      <c r="P346" s="32"/>
-      <c r="Q346" s="36" t="e">
+      <c r="H346" s="24">
+        <v>5443214176</v>
+      </c>
+      <c r="I346" s="16">
+        <v>0</v>
+      </c>
+      <c r="J346" s="16">
+        <v>10</v>
+      </c>
+      <c r="K346" s="16">
+        <v>3</v>
+      </c>
+      <c r="L346" s="22">
+        <v>185900</v>
+      </c>
+      <c r="M346" s="22">
+        <v>712344</v>
+      </c>
+      <c r="N346" s="32">
+        <v>36</v>
+      </c>
+      <c r="O346" s="32">
+        <v>30</v>
+      </c>
+      <c r="P346" s="32">
+        <v>28.8</v>
+      </c>
+      <c r="Q346" s="36">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R346" s="40" t="e">
+        <v>0.3</v>
+      </c>
+      <c r="R346" s="40">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S346" s="38" t="e">
+        <v>3.4152615346216353E-3</v>
+      </c>
+      <c r="S346" s="38">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>1.3086826587512181E-2</v>
       </c>
       <c r="T346" s="36">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>94.8</v>
       </c>
     </row>
     <row r="347" spans="1:20" x14ac:dyDescent="0.15">
@@ -20572,30 +21332,48 @@
         <v>56</v>
       </c>
       <c r="G347" s="15"/>
-      <c r="H347" s="24"/>
-      <c r="I347" s="16"/>
-      <c r="J347" s="16"/>
-      <c r="K347" s="16"/>
-      <c r="L347" s="22"/>
-      <c r="M347" s="22"/>
-      <c r="N347" s="32"/>
-      <c r="O347" s="32"/>
-      <c r="P347" s="32"/>
-      <c r="Q347" s="36" t="e">
+      <c r="H347" s="24">
+        <v>103557209</v>
+      </c>
+      <c r="I347" s="16">
+        <v>0</v>
+      </c>
+      <c r="J347" s="16">
+        <v>9</v>
+      </c>
+      <c r="K347" s="16">
+        <v>3</v>
+      </c>
+      <c r="L347" s="22">
+        <v>0</v>
+      </c>
+      <c r="M347" s="22">
+        <v>0</v>
+      </c>
+      <c r="N347" s="32">
+        <v>50</v>
+      </c>
+      <c r="O347" s="32">
+        <v>50</v>
+      </c>
+      <c r="P347" s="32">
+        <v>40</v>
+      </c>
+      <c r="Q347" s="36">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R347" s="40" t="e">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R347" s="40">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S347" s="38" t="e">
+        <v>0</v>
+      </c>
+      <c r="S347" s="38">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="T347" s="36">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>140</v>
       </c>
     </row>
     <row r="348" spans="1:20" x14ac:dyDescent="0.15">
@@ -20618,30 +21396,48 @@
         <v>888</v>
       </c>
       <c r="G348" s="15"/>
-      <c r="H348" s="24"/>
-      <c r="I348" s="16"/>
-      <c r="J348" s="16"/>
-      <c r="K348" s="16"/>
-      <c r="L348" s="22"/>
-      <c r="M348" s="22"/>
-      <c r="N348" s="32"/>
-      <c r="O348" s="32"/>
-      <c r="P348" s="32"/>
-      <c r="Q348" s="36" t="e">
+      <c r="H348" s="24">
+        <v>788688620</v>
+      </c>
+      <c r="I348" s="16">
+        <v>0</v>
+      </c>
+      <c r="J348" s="16">
+        <v>9</v>
+      </c>
+      <c r="K348" s="16">
+        <v>5</v>
+      </c>
+      <c r="L348" s="22">
+        <v>1791414</v>
+      </c>
+      <c r="M348" s="22">
+        <v>4980264</v>
+      </c>
+      <c r="N348" s="32">
+        <v>55.28</v>
+      </c>
+      <c r="O348" s="32">
+        <v>19.5</v>
+      </c>
+      <c r="P348" s="32">
+        <v>9</v>
+      </c>
+      <c r="Q348" s="36">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R348" s="40" t="e">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="R348" s="40">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S348" s="38" t="e">
+        <v>0.22713830966649423</v>
+      </c>
+      <c r="S348" s="38">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>0.63146137445218875</v>
       </c>
       <c r="T348" s="36">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>83.78</v>
       </c>
     </row>
     <row r="349" spans="1:20" x14ac:dyDescent="0.15">
@@ -20664,30 +21460,48 @@
         <v>891</v>
       </c>
       <c r="G349" s="15"/>
-      <c r="H349" s="24"/>
-      <c r="I349" s="16"/>
-      <c r="J349" s="16"/>
-      <c r="K349" s="16"/>
-      <c r="L349" s="22"/>
-      <c r="M349" s="22"/>
-      <c r="N349" s="32"/>
-      <c r="O349" s="32"/>
-      <c r="P349" s="32"/>
-      <c r="Q349" s="36" t="e">
+      <c r="H349" s="24">
+        <v>160000000</v>
+      </c>
+      <c r="I349" s="16">
+        <v>0</v>
+      </c>
+      <c r="J349" s="16">
+        <v>9</v>
+      </c>
+      <c r="K349" s="16">
+        <v>3</v>
+      </c>
+      <c r="L349" s="22">
+        <v>0</v>
+      </c>
+      <c r="M349" s="22">
+        <v>0</v>
+      </c>
+      <c r="N349" s="32">
+        <v>47.17</v>
+      </c>
+      <c r="O349" s="32">
+        <v>44.53</v>
+      </c>
+      <c r="P349" s="32">
+        <v>35.93</v>
+      </c>
+      <c r="Q349" s="36">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R349" s="40" t="e">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R349" s="40">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S349" s="38" t="e">
+        <v>0</v>
+      </c>
+      <c r="S349" s="38">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="T349" s="36">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>127.63</v>
       </c>
     </row>
     <row r="350" spans="1:20" x14ac:dyDescent="0.15">
@@ -20710,30 +21524,48 @@
         <v>49</v>
       </c>
       <c r="G350" s="15"/>
-      <c r="H350" s="24"/>
-      <c r="I350" s="16"/>
-      <c r="J350" s="16"/>
-      <c r="K350" s="16"/>
-      <c r="L350" s="22"/>
-      <c r="M350" s="22"/>
-      <c r="N350" s="32"/>
-      <c r="O350" s="32"/>
-      <c r="P350" s="32"/>
-      <c r="Q350" s="36" t="e">
+      <c r="H350" s="24">
+        <v>802798152</v>
+      </c>
+      <c r="I350" s="16">
+        <v>0</v>
+      </c>
+      <c r="J350" s="16">
+        <v>15</v>
+      </c>
+      <c r="K350" s="16">
+        <v>5</v>
+      </c>
+      <c r="L350" s="22">
+        <v>0</v>
+      </c>
+      <c r="M350" s="22">
+        <v>3718</v>
+      </c>
+      <c r="N350" s="32">
+        <v>105.24</v>
+      </c>
+      <c r="O350" s="32">
+        <v>5</v>
+      </c>
+      <c r="P350" s="32">
+        <v>5</v>
+      </c>
+      <c r="Q350" s="36">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R350" s="40" t="e">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R350" s="40">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S350" s="38" t="e">
+        <v>0</v>
+      </c>
+      <c r="S350" s="38">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>4.6313011443005914E-4</v>
       </c>
       <c r="T350" s="36">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>115.24</v>
       </c>
     </row>
     <row r="351" spans="1:20" x14ac:dyDescent="0.15">
@@ -20756,30 +21588,48 @@
         <v>279</v>
       </c>
       <c r="G351" s="15"/>
-      <c r="H351" s="24"/>
-      <c r="I351" s="16"/>
-      <c r="J351" s="16"/>
-      <c r="K351" s="16"/>
-      <c r="L351" s="22"/>
-      <c r="M351" s="22"/>
-      <c r="N351" s="32"/>
-      <c r="O351" s="32"/>
-      <c r="P351" s="32"/>
-      <c r="Q351" s="36" t="e">
+      <c r="H351" s="24">
+        <v>2137730139</v>
+      </c>
+      <c r="I351" s="16">
+        <v>0</v>
+      </c>
+      <c r="J351" s="16">
+        <v>9</v>
+      </c>
+      <c r="K351" s="16">
+        <v>6</v>
+      </c>
+      <c r="L351" s="22">
+        <v>203352284</v>
+      </c>
+      <c r="M351" s="22">
+        <v>125532284</v>
+      </c>
+      <c r="N351" s="32">
+        <v>496.97</v>
+      </c>
+      <c r="O351" s="32">
+        <v>204.97</v>
+      </c>
+      <c r="P351" s="32">
+        <v>191.48</v>
+      </c>
+      <c r="Q351" s="36">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R351" s="40" t="e">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="R351" s="40">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S351" s="38" t="e">
+        <v>9.5125329568083519</v>
+      </c>
+      <c r="S351" s="38">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>5.8722231450000617</v>
       </c>
       <c r="T351" s="36">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>893.42000000000007</v>
       </c>
     </row>
     <row r="352" spans="1:20" x14ac:dyDescent="0.15">
@@ -20803,19 +21653,35 @@
       </c>
       <c r="G352" s="15"/>
       <c r="H352" s="24">
-        <v>13123</v>
-      </c>
-      <c r="I352" s="16"/>
-      <c r="J352" s="16"/>
-      <c r="K352" s="16"/>
-      <c r="L352" s="22"/>
-      <c r="M352" s="22"/>
-      <c r="N352" s="32"/>
-      <c r="O352" s="32"/>
-      <c r="P352" s="32"/>
-      <c r="Q352" s="36" t="e">
+        <v>540742345</v>
+      </c>
+      <c r="I352" s="16">
+        <v>0</v>
+      </c>
+      <c r="J352" s="16">
+        <v>8</v>
+      </c>
+      <c r="K352" s="16">
+        <v>4</v>
+      </c>
+      <c r="L352" s="22">
+        <v>0</v>
+      </c>
+      <c r="M352" s="22">
+        <v>0</v>
+      </c>
+      <c r="N352" s="32">
+        <v>95.98</v>
+      </c>
+      <c r="O352" s="32">
+        <v>53.8</v>
+      </c>
+      <c r="P352" s="32">
+        <v>8.73</v>
+      </c>
+      <c r="Q352" s="36">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
+        <v>0.5</v>
       </c>
       <c r="R352" s="40">
         <f t="shared" si="21"/>
@@ -20827,7 +21693,7 @@
       </c>
       <c r="T352" s="36">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>158.51</v>
       </c>
     </row>
     <row r="353" spans="1:20" x14ac:dyDescent="0.15">

--- a/上市公司2016年度财务数据_20180226.xlsx
+++ b/上市公司2016年度财务数据_20180226.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\If\二师妹\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IF\Documents\GitHub\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="7950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="7950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$3:$A$480</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -3787,12 +3787,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
     <numFmt numFmtId="178" formatCode="0.0000_ "/>
     <numFmt numFmtId="179" formatCode="0.00000000_ "/>
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -3893,7 +3894,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4022,10 +4023,13 @@
     <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -4066,7 +4070,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4265,7 +4275,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4340,6 +4350,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4375,6 +4402,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4550,14 +4594,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T480"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H288" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="H441" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H361" sqref="H361"/>
+      <selection pane="bottomRight" activeCell="H453" sqref="H453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
@@ -27718,30 +27762,48 @@
         <v>1124</v>
       </c>
       <c r="G447" s="15"/>
-      <c r="H447" s="24"/>
-      <c r="I447" s="16"/>
-      <c r="J447" s="16"/>
-      <c r="K447" s="16"/>
-      <c r="L447" s="22"/>
-      <c r="M447" s="22"/>
-      <c r="N447" s="32"/>
-      <c r="O447" s="32"/>
-      <c r="P447" s="32"/>
-      <c r="Q447" s="36" t="e">
+      <c r="H447" s="24">
+        <v>28698864088</v>
+      </c>
+      <c r="I447" s="16">
+        <v>0</v>
+      </c>
+      <c r="J447" s="16">
+        <v>8</v>
+      </c>
+      <c r="K447" s="16">
+        <v>5</v>
+      </c>
+      <c r="L447" s="22">
+        <v>281800</v>
+      </c>
+      <c r="M447" s="22">
+        <v>904238</v>
+      </c>
+      <c r="N447" s="44">
+        <v>76.040000000000006</v>
+      </c>
+      <c r="O447" s="44">
+        <v>14.9</v>
+      </c>
+      <c r="P447" s="44">
+        <v>14.7</v>
+      </c>
+      <c r="Q447" s="36">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R447" s="40" t="e">
+        <v>0.625</v>
+      </c>
+      <c r="R447" s="40">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S447" s="38" t="e">
+        <v>9.8192039634708195E-4</v>
+      </c>
+      <c r="S447" s="38">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
+        <v>3.1507797563949357E-3</v>
       </c>
       <c r="T447" s="36">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>105.64000000000001</v>
       </c>
     </row>
     <row r="448" spans="1:20" x14ac:dyDescent="0.15">
@@ -27770,9 +27832,9 @@
       <c r="K448" s="16"/>
       <c r="L448" s="22"/>
       <c r="M448" s="22"/>
-      <c r="N448" s="32"/>
-      <c r="O448" s="32"/>
-      <c r="P448" s="32"/>
+      <c r="N448" s="44"/>
+      <c r="O448" s="44"/>
+      <c r="P448" s="44"/>
       <c r="Q448" s="36" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
@@ -27810,30 +27872,48 @@
         <v>1130</v>
       </c>
       <c r="G449" s="15"/>
-      <c r="H449" s="24"/>
-      <c r="I449" s="16"/>
-      <c r="J449" s="16"/>
-      <c r="K449" s="16"/>
-      <c r="L449" s="22"/>
-      <c r="M449" s="22"/>
-      <c r="N449" s="32"/>
-      <c r="O449" s="32"/>
-      <c r="P449" s="32"/>
-      <c r="Q449" s="36" t="e">
+      <c r="H449" s="24">
+        <v>4771592000</v>
+      </c>
+      <c r="I449" s="16">
+        <v>0</v>
+      </c>
+      <c r="J449" s="16">
+        <v>10</v>
+      </c>
+      <c r="K449" s="16">
+        <v>3</v>
+      </c>
+      <c r="L449" s="22">
+        <v>60000</v>
+      </c>
+      <c r="M449" s="22">
+        <v>60000</v>
+      </c>
+      <c r="N449" s="44">
+        <v>78.39</v>
+      </c>
+      <c r="O449" s="44">
+        <v>68.48</v>
+      </c>
+      <c r="P449" s="44">
+        <v>55.6</v>
+      </c>
+      <c r="Q449" s="36">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R449" s="40" t="e">
+        <v>0.3</v>
+      </c>
+      <c r="R449" s="40">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S449" s="38" t="e">
+        <v>1.2574419606705687E-3</v>
+      </c>
+      <c r="S449" s="38">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
+        <v>1.2574419606705687E-3</v>
       </c>
       <c r="T449" s="36">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>202.47</v>
       </c>
     </row>
     <row r="450" spans="1:20" x14ac:dyDescent="0.15">
@@ -27858,30 +27938,48 @@
       <c r="G450" s="15" t="s">
         <v>1133</v>
       </c>
-      <c r="H450" s="24"/>
-      <c r="I450" s="16"/>
-      <c r="J450" s="16"/>
-      <c r="K450" s="16"/>
-      <c r="L450" s="22"/>
-      <c r="M450" s="22"/>
-      <c r="N450" s="32"/>
-      <c r="O450" s="32"/>
-      <c r="P450" s="32"/>
-      <c r="Q450" s="36" t="e">
+      <c r="H450" s="24">
+        <v>46679095000</v>
+      </c>
+      <c r="I450" s="16">
+        <v>0</v>
+      </c>
+      <c r="J450" s="16">
+        <v>14</v>
+      </c>
+      <c r="K450" s="16">
+        <v>6</v>
+      </c>
+      <c r="L450" s="22">
+        <v>0</v>
+      </c>
+      <c r="M450" s="22">
+        <v>0</v>
+      </c>
+      <c r="N450" s="44">
+        <v>129.6</v>
+      </c>
+      <c r="O450" s="44">
+        <v>129.6</v>
+      </c>
+      <c r="P450" s="44">
+        <v>47.2</v>
+      </c>
+      <c r="Q450" s="36">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R450" s="40" t="e">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="R450" s="40">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S450" s="38" t="e">
+        <v>0</v>
+      </c>
+      <c r="S450" s="38">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="T450" s="36">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>306.39999999999998</v>
       </c>
     </row>
     <row r="451" spans="1:20" x14ac:dyDescent="0.15">
@@ -29750,7 +29848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:A480"/>
   <sheetViews>
@@ -32162,7 +32260,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A480">
+  <autoFilter ref="A3:A480" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="0">
       <colorFilter dxfId="0" cellColor="0"/>
     </filterColumn>
@@ -32173,7 +32271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A52"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
@@ -32452,7 +32550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
@@ -33103,5 +33201,6 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/上市公司2016年度财务数据_20180226.xlsx
+++ b/上市公司2016年度财务数据_20180226.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IF\Documents\GitHub\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面文件\我的文档\GitHub\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="7950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$3:$A$480</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -3787,7 +3787,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
@@ -4029,7 +4029,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -4073,7 +4073,7 @@
         <xdr:cNvPr id="2" name="文本框 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4275,7 +4275,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4350,23 +4350,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4402,23 +4385,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4594,14 +4560,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T480"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H441" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="H285" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H453" sqref="H453"/>
+      <selection pane="bottomRight" activeCell="J290" sqref="J290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
@@ -4618,7 +4584,8 @@
     <col min="11" max="11" width="11" style="6" customWidth="1"/>
     <col min="12" max="13" width="16.875" style="6" customWidth="1"/>
     <col min="14" max="14" width="10.125" style="34" customWidth="1"/>
-    <col min="15" max="16" width="8.625" style="34" customWidth="1"/>
+    <col min="15" max="15" width="10.625" style="34" customWidth="1"/>
+    <col min="16" max="16" width="13.125" style="34" customWidth="1"/>
     <col min="17" max="17" width="13.125" style="37" customWidth="1"/>
     <col min="18" max="18" width="25.125" style="41" customWidth="1"/>
     <col min="19" max="19" width="12.875" style="42" customWidth="1"/>
@@ -17941,7 +17908,9 @@
       </c>
       <c r="G289" s="15"/>
       <c r="H289" s="24"/>
-      <c r="I289" s="16"/>
+      <c r="I289" s="16">
+        <v>0</v>
+      </c>
       <c r="J289" s="16"/>
       <c r="K289" s="16"/>
       <c r="L289" s="22"/>
@@ -17986,30 +17955,48 @@
         <v>748</v>
       </c>
       <c r="G290" s="15"/>
-      <c r="H290" s="24"/>
-      <c r="I290" s="16"/>
-      <c r="J290" s="16"/>
-      <c r="K290" s="16"/>
-      <c r="L290" s="22"/>
-      <c r="M290" s="22"/>
-      <c r="N290" s="32"/>
-      <c r="O290" s="32"/>
-      <c r="P290" s="32"/>
-      <c r="Q290" s="36" t="e">
+      <c r="H290" s="24">
+        <v>1391777884</v>
+      </c>
+      <c r="I290" s="16">
+        <v>0</v>
+      </c>
+      <c r="J290" s="16">
+        <v>15</v>
+      </c>
+      <c r="K290" s="16">
+        <v>5</v>
+      </c>
+      <c r="L290" s="22">
+        <v>0</v>
+      </c>
+      <c r="M290" s="22">
+        <v>0</v>
+      </c>
+      <c r="N290" s="32">
+        <v>93.89</v>
+      </c>
+      <c r="O290" s="32">
+        <v>93.55</v>
+      </c>
+      <c r="P290" s="32">
+        <v>92.52</v>
+      </c>
+      <c r="Q290" s="36">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R290" s="40" t="e">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R290" s="40">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S290" s="38" t="e">
+        <v>0</v>
+      </c>
+      <c r="S290" s="38">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="T290" s="36">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>279.95999999999998</v>
       </c>
     </row>
     <row r="291" spans="1:20" x14ac:dyDescent="0.15">
@@ -18032,30 +18019,48 @@
         <v>246</v>
       </c>
       <c r="G291" s="15"/>
-      <c r="H291" s="24"/>
-      <c r="I291" s="16"/>
-      <c r="J291" s="16"/>
-      <c r="K291" s="16"/>
-      <c r="L291" s="22"/>
-      <c r="M291" s="22"/>
-      <c r="N291" s="32"/>
-      <c r="O291" s="32"/>
-      <c r="P291" s="32"/>
-      <c r="Q291" s="36" t="e">
+      <c r="H291" s="24">
+        <v>589476716</v>
+      </c>
+      <c r="I291" s="16">
+        <v>1</v>
+      </c>
+      <c r="J291" s="16">
+        <v>9</v>
+      </c>
+      <c r="K291" s="16">
+        <v>6</v>
+      </c>
+      <c r="L291" s="22">
+        <v>7200</v>
+      </c>
+      <c r="M291" s="22">
+        <v>13200</v>
+      </c>
+      <c r="N291" s="32">
+        <v>92.7</v>
+      </c>
+      <c r="O291" s="32">
+        <v>81.93</v>
+      </c>
+      <c r="P291" s="32">
+        <v>6</v>
+      </c>
+      <c r="Q291" s="36">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R291" s="40" t="e">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="R291" s="40">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S291" s="38" t="e">
+        <v>1.2214222893920036E-3</v>
+      </c>
+      <c r="S291" s="38">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>2.2392741972186735E-3</v>
       </c>
       <c r="T291" s="36">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>180.63</v>
       </c>
     </row>
     <row r="292" spans="1:20" x14ac:dyDescent="0.15">
@@ -18078,30 +18083,48 @@
         <v>42</v>
       </c>
       <c r="G292" s="15"/>
-      <c r="H292" s="24"/>
-      <c r="I292" s="16"/>
-      <c r="J292" s="16"/>
-      <c r="K292" s="16"/>
-      <c r="L292" s="22"/>
-      <c r="M292" s="22"/>
-      <c r="N292" s="32"/>
-      <c r="O292" s="32"/>
-      <c r="P292" s="32"/>
-      <c r="Q292" s="36" t="e">
+      <c r="H292" s="24">
+        <v>310880000</v>
+      </c>
+      <c r="I292" s="16">
+        <v>0</v>
+      </c>
+      <c r="J292" s="16">
+        <v>5</v>
+      </c>
+      <c r="K292" s="16">
+        <v>2</v>
+      </c>
+      <c r="L292" s="22">
+        <v>2279161</v>
+      </c>
+      <c r="M292" s="22">
+        <v>6111908</v>
+      </c>
+      <c r="N292" s="32">
+        <v>135</v>
+      </c>
+      <c r="O292" s="32">
+        <v>3.68</v>
+      </c>
+      <c r="P292" s="32">
+        <v>3.68</v>
+      </c>
+      <c r="Q292" s="36">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R292" s="40" t="e">
+        <v>0.4</v>
+      </c>
+      <c r="R292" s="40">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S292" s="38" t="e">
+        <v>0.73313207668553781</v>
+      </c>
+      <c r="S292" s="38">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>1.9660023160061761</v>
       </c>
       <c r="T292" s="36">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>142.36000000000001</v>
       </c>
     </row>
     <row r="293" spans="1:20" x14ac:dyDescent="0.15">
@@ -18124,30 +18147,48 @@
         <v>755</v>
       </c>
       <c r="G293" s="15"/>
-      <c r="H293" s="24"/>
-      <c r="I293" s="16"/>
-      <c r="J293" s="16"/>
-      <c r="K293" s="16"/>
-      <c r="L293" s="22"/>
-      <c r="M293" s="22"/>
-      <c r="N293" s="32"/>
-      <c r="O293" s="32"/>
-      <c r="P293" s="32"/>
-      <c r="Q293" s="36" t="e">
+      <c r="H293" s="24">
+        <v>1068485534</v>
+      </c>
+      <c r="I293" s="16">
+        <v>0</v>
+      </c>
+      <c r="J293" s="16">
+        <v>9</v>
+      </c>
+      <c r="K293" s="16">
+        <v>4</v>
+      </c>
+      <c r="L293" s="22">
+        <v>0</v>
+      </c>
+      <c r="M293" s="22">
+        <v>6682</v>
+      </c>
+      <c r="N293" s="32">
+        <v>94.81</v>
+      </c>
+      <c r="O293" s="32">
+        <v>81.97</v>
+      </c>
+      <c r="P293" s="32">
+        <v>10</v>
+      </c>
+      <c r="Q293" s="36">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R293" s="40" t="e">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="R293" s="40">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S293" s="38" t="e">
+        <v>0</v>
+      </c>
+      <c r="S293" s="38">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>6.2537112458464035E-4</v>
       </c>
       <c r="T293" s="36">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>186.78</v>
       </c>
     </row>
     <row r="294" spans="1:20" x14ac:dyDescent="0.15">
@@ -18170,30 +18211,48 @@
         <v>81</v>
       </c>
       <c r="G294" s="15"/>
-      <c r="H294" s="24"/>
-      <c r="I294" s="16"/>
-      <c r="J294" s="16"/>
-      <c r="K294" s="16"/>
-      <c r="L294" s="22"/>
-      <c r="M294" s="22"/>
-      <c r="N294" s="32"/>
-      <c r="O294" s="32"/>
-      <c r="P294" s="32"/>
-      <c r="Q294" s="36" t="e">
+      <c r="H294" s="24">
+        <v>1071910700</v>
+      </c>
+      <c r="I294" s="16">
+        <v>0</v>
+      </c>
+      <c r="J294" s="16">
+        <v>8</v>
+      </c>
+      <c r="K294" s="16">
+        <v>3</v>
+      </c>
+      <c r="L294" s="22">
+        <v>10000</v>
+      </c>
+      <c r="M294" s="22">
+        <v>29482</v>
+      </c>
+      <c r="N294" s="32">
+        <v>20</v>
+      </c>
+      <c r="O294" s="32">
+        <v>20</v>
+      </c>
+      <c r="P294" s="32">
+        <v>20</v>
+      </c>
+      <c r="Q294" s="36">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R294" s="40" t="e">
+        <v>0.375</v>
+      </c>
+      <c r="R294" s="40">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S294" s="38" t="e">
+        <v>9.3291353468157371E-4</v>
+      </c>
+      <c r="S294" s="38">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>2.7504156829482158E-3</v>
       </c>
       <c r="T294" s="36">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="295" spans="1:20" x14ac:dyDescent="0.15">
@@ -18218,30 +18277,48 @@
       <c r="G295" s="15" t="s">
         <v>760</v>
       </c>
-      <c r="H295" s="24"/>
-      <c r="I295" s="16"/>
-      <c r="J295" s="16"/>
-      <c r="K295" s="16"/>
-      <c r="L295" s="22"/>
-      <c r="M295" s="22"/>
-      <c r="N295" s="32"/>
-      <c r="O295" s="32"/>
-      <c r="P295" s="32"/>
-      <c r="Q295" s="36" t="e">
+      <c r="H295" s="24">
+        <v>808524165</v>
+      </c>
+      <c r="I295" s="16">
+        <v>1</v>
+      </c>
+      <c r="J295" s="16">
+        <v>11</v>
+      </c>
+      <c r="K295" s="16">
+        <v>4</v>
+      </c>
+      <c r="L295" s="22">
+        <v>74293</v>
+      </c>
+      <c r="M295" s="22">
+        <v>80984</v>
+      </c>
+      <c r="N295" s="32">
+        <v>42.6</v>
+      </c>
+      <c r="O295" s="32">
+        <v>32.85</v>
+      </c>
+      <c r="P295" s="32">
+        <v>32.85</v>
+      </c>
+      <c r="Q295" s="36">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R295" s="40" t="e">
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="R295" s="40">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S295" s="38" t="e">
+        <v>9.1887173217636599E-3</v>
+      </c>
+      <c r="S295" s="38">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>1.0016274529036494E-2</v>
       </c>
       <c r="T295" s="36">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>108.30000000000001</v>
       </c>
     </row>
     <row r="296" spans="1:20" x14ac:dyDescent="0.15">
@@ -18264,30 +18341,48 @@
         <v>648</v>
       </c>
       <c r="G296" s="15"/>
-      <c r="H296" s="24"/>
-      <c r="I296" s="16"/>
-      <c r="J296" s="16"/>
-      <c r="K296" s="16"/>
-      <c r="L296" s="22"/>
-      <c r="M296" s="22"/>
-      <c r="N296" s="32"/>
-      <c r="O296" s="32"/>
-      <c r="P296" s="32"/>
-      <c r="Q296" s="36" t="e">
+      <c r="H296" s="24">
+        <v>772473055</v>
+      </c>
+      <c r="I296" s="16">
+        <v>0</v>
+      </c>
+      <c r="J296" s="16">
+        <v>7</v>
+      </c>
+      <c r="K296" s="16">
+        <v>3</v>
+      </c>
+      <c r="L296" s="22">
+        <v>0</v>
+      </c>
+      <c r="M296" s="22">
+        <v>0</v>
+      </c>
+      <c r="N296" s="32">
+        <v>88.75</v>
+      </c>
+      <c r="O296" s="32">
+        <v>6.72</v>
+      </c>
+      <c r="P296" s="32">
+        <v>0.83</v>
+      </c>
+      <c r="Q296" s="36">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R296" s="40" t="e">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="R296" s="40">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S296" s="38" t="e">
+        <v>0</v>
+      </c>
+      <c r="S296" s="38">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="T296" s="36">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>96.3</v>
       </c>
     </row>
     <row r="297" spans="1:20" x14ac:dyDescent="0.15">
@@ -18310,30 +18405,48 @@
         <v>765</v>
       </c>
       <c r="G297" s="15"/>
-      <c r="H297" s="24"/>
-      <c r="I297" s="16"/>
-      <c r="J297" s="16"/>
-      <c r="K297" s="16"/>
-      <c r="L297" s="22"/>
-      <c r="M297" s="22"/>
-      <c r="N297" s="32"/>
-      <c r="O297" s="32"/>
-      <c r="P297" s="32"/>
-      <c r="Q297" s="36" t="e">
+      <c r="H297" s="24">
+        <v>4604777412</v>
+      </c>
+      <c r="I297" s="16">
+        <v>0</v>
+      </c>
+      <c r="J297" s="16">
+        <v>9</v>
+      </c>
+      <c r="K297" s="16">
+        <v>5</v>
+      </c>
+      <c r="L297" s="22">
+        <v>536500</v>
+      </c>
+      <c r="M297" s="22">
+        <v>1946946</v>
+      </c>
+      <c r="N297" s="32">
+        <v>88.23</v>
+      </c>
+      <c r="O297" s="32">
+        <v>88.23</v>
+      </c>
+      <c r="P297" s="32">
+        <v>15.7</v>
+      </c>
+      <c r="Q297" s="36">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R297" s="40" t="e">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="R297" s="40">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S297" s="38" t="e">
+        <v>1.165094318352689E-2</v>
+      </c>
+      <c r="S297" s="38">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>4.2281001355815369E-2</v>
       </c>
       <c r="T297" s="36">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>192.16</v>
       </c>
     </row>
     <row r="298" spans="1:20" x14ac:dyDescent="0.15">
@@ -18356,30 +18469,48 @@
         <v>768</v>
       </c>
       <c r="G298" s="15"/>
-      <c r="H298" s="24"/>
-      <c r="I298" s="16"/>
-      <c r="J298" s="16"/>
-      <c r="K298" s="16"/>
-      <c r="L298" s="22"/>
-      <c r="M298" s="22"/>
-      <c r="N298" s="32"/>
-      <c r="O298" s="32"/>
-      <c r="P298" s="32"/>
-      <c r="Q298" s="36" t="e">
+      <c r="H298" s="24">
+        <v>1249102957</v>
+      </c>
+      <c r="I298" s="16">
+        <v>0</v>
+      </c>
+      <c r="J298" s="16">
+        <v>10</v>
+      </c>
+      <c r="K298" s="16">
+        <v>4</v>
+      </c>
+      <c r="L298" s="22">
+        <v>6600</v>
+      </c>
+      <c r="M298" s="22">
+        <v>6600</v>
+      </c>
+      <c r="N298" s="32">
+        <v>37.31</v>
+      </c>
+      <c r="O298" s="32">
+        <v>37.31</v>
+      </c>
+      <c r="P298" s="32">
+        <v>32.15</v>
+      </c>
+      <c r="Q298" s="36">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R298" s="40" t="e">
+        <v>0.4</v>
+      </c>
+      <c r="R298" s="40">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S298" s="38" t="e">
+        <v>5.2837918307802067E-4</v>
+      </c>
+      <c r="S298" s="38">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>5.2837918307802067E-4</v>
       </c>
       <c r="T298" s="36">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>106.77000000000001</v>
       </c>
     </row>
     <row r="299" spans="1:20" x14ac:dyDescent="0.15">
@@ -18402,30 +18533,48 @@
         <v>771</v>
       </c>
       <c r="G299" s="15"/>
-      <c r="H299" s="24"/>
-      <c r="I299" s="16"/>
-      <c r="J299" s="16"/>
-      <c r="K299" s="16"/>
-      <c r="L299" s="22"/>
-      <c r="M299" s="22"/>
-      <c r="N299" s="32"/>
-      <c r="O299" s="32"/>
-      <c r="P299" s="32"/>
-      <c r="Q299" s="36" t="e">
+      <c r="H299" s="24">
+        <v>736249883</v>
+      </c>
+      <c r="I299" s="16">
+        <v>0</v>
+      </c>
+      <c r="J299" s="16">
+        <v>9</v>
+      </c>
+      <c r="K299" s="16">
+        <v>3</v>
+      </c>
+      <c r="L299" s="22">
+        <v>0</v>
+      </c>
+      <c r="M299" s="22">
+        <v>0</v>
+      </c>
+      <c r="N299" s="32">
+        <v>114.92</v>
+      </c>
+      <c r="O299" s="32">
+        <v>107.6</v>
+      </c>
+      <c r="P299" s="32">
+        <v>92.12</v>
+      </c>
+      <c r="Q299" s="36">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R299" s="40" t="e">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R299" s="40">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S299" s="38" t="e">
+        <v>0</v>
+      </c>
+      <c r="S299" s="38">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="T299" s="36">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>314.64</v>
       </c>
     </row>
     <row r="300" spans="1:20" x14ac:dyDescent="0.15">
@@ -18448,30 +18597,48 @@
         <v>52</v>
       </c>
       <c r="G300" s="15"/>
-      <c r="H300" s="24"/>
-      <c r="I300" s="16"/>
-      <c r="J300" s="16"/>
-      <c r="K300" s="16"/>
-      <c r="L300" s="22"/>
-      <c r="M300" s="22"/>
-      <c r="N300" s="32"/>
-      <c r="O300" s="32"/>
-      <c r="P300" s="32"/>
-      <c r="Q300" s="36" t="e">
+      <c r="H300" s="24">
+        <v>694658823</v>
+      </c>
+      <c r="I300" s="16">
+        <v>0</v>
+      </c>
+      <c r="J300" s="16">
+        <v>9</v>
+      </c>
+      <c r="K300" s="16">
+        <v>3</v>
+      </c>
+      <c r="L300" s="22">
+        <v>9500</v>
+      </c>
+      <c r="M300" s="22">
+        <v>46300</v>
+      </c>
+      <c r="N300" s="32">
+        <v>31.61</v>
+      </c>
+      <c r="O300" s="32">
+        <v>29.38</v>
+      </c>
+      <c r="P300" s="32">
+        <v>27.95</v>
+      </c>
+      <c r="Q300" s="36">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R300" s="40" t="e">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R300" s="40">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S300" s="38" t="e">
+        <v>1.3675778217244353E-3</v>
+      </c>
+      <c r="S300" s="38">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>6.6651424364043525E-3</v>
       </c>
       <c r="T300" s="36">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>88.94</v>
       </c>
     </row>
     <row r="301" spans="1:20" x14ac:dyDescent="0.15">
@@ -18496,30 +18663,48 @@
       <c r="G301" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="H301" s="24"/>
-      <c r="I301" s="16"/>
-      <c r="J301" s="16"/>
-      <c r="K301" s="16"/>
-      <c r="L301" s="22"/>
-      <c r="M301" s="22"/>
-      <c r="N301" s="32"/>
-      <c r="O301" s="32"/>
-      <c r="P301" s="32"/>
-      <c r="Q301" s="36" t="e">
+      <c r="H301" s="24">
+        <v>313560000</v>
+      </c>
+      <c r="I301" s="16">
+        <v>0</v>
+      </c>
+      <c r="J301" s="16">
+        <v>13</v>
+      </c>
+      <c r="K301" s="16">
+        <v>5</v>
+      </c>
+      <c r="L301" s="22">
+        <v>0</v>
+      </c>
+      <c r="M301" s="22">
+        <v>1500</v>
+      </c>
+      <c r="N301" s="32">
+        <v>78.726200000000006</v>
+      </c>
+      <c r="O301" s="32">
+        <v>61.805599999999998</v>
+      </c>
+      <c r="P301" s="32">
+        <v>5</v>
+      </c>
+      <c r="Q301" s="36">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R301" s="40" t="e">
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="R301" s="40">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S301" s="38" t="e">
+        <v>0</v>
+      </c>
+      <c r="S301" s="38">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>4.7837734404898585E-4</v>
       </c>
       <c r="T301" s="36">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>145.5318</v>
       </c>
     </row>
     <row r="302" spans="1:20" x14ac:dyDescent="0.15">
@@ -18542,30 +18727,48 @@
         <v>100</v>
       </c>
       <c r="G302" s="15"/>
-      <c r="H302" s="24"/>
-      <c r="I302" s="16"/>
-      <c r="J302" s="16"/>
-      <c r="K302" s="16"/>
-      <c r="L302" s="22"/>
-      <c r="M302" s="22"/>
-      <c r="N302" s="32"/>
-      <c r="O302" s="32"/>
-      <c r="P302" s="32"/>
-      <c r="Q302" s="36" t="e">
+      <c r="H302" s="24">
+        <v>1150312100</v>
+      </c>
+      <c r="I302" s="16">
+        <v>0</v>
+      </c>
+      <c r="J302" s="16">
+        <v>9</v>
+      </c>
+      <c r="K302" s="16">
+        <v>6</v>
+      </c>
+      <c r="L302" s="22">
+        <v>0</v>
+      </c>
+      <c r="M302" s="22">
+        <v>52500</v>
+      </c>
+      <c r="N302" s="32">
+        <v>108</v>
+      </c>
+      <c r="O302" s="32">
+        <v>67.5</v>
+      </c>
+      <c r="P302" s="32">
+        <v>6</v>
+      </c>
+      <c r="Q302" s="36">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R302" s="40" t="e">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="R302" s="40">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S302" s="38" t="e">
+        <v>0</v>
+      </c>
+      <c r="S302" s="38">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>4.5639787671537136E-3</v>
       </c>
       <c r="T302" s="36">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>181.5</v>
       </c>
     </row>
     <row r="303" spans="1:20" x14ac:dyDescent="0.15">
@@ -29848,7 +30051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:A480"/>
   <sheetViews>
@@ -32260,7 +32463,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A480" xr:uid="{00000000-0009-0000-0000-000001000000}">
+  <autoFilter ref="A3:A480">
     <filterColumn colId="0">
       <colorFilter dxfId="0" cellColor="0"/>
     </filterColumn>
@@ -32271,7 +32474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A52"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
@@ -32550,7 +32753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
